--- a/metadata/C3H10_10X_Metadata.xlsx
+++ b/metadata/C3H10_10X_Metadata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gardeux\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA539A46-C8E2-41C1-B384-6189AAC22AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE18494-B7A5-40EF-AB0A-D401249857CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3H10_10X_Metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6762,7 +6773,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7317,7 +7328,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -7633,11 +7644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J645"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="L598" sqref="L598"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="M614" sqref="M614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,7 +7665,7 @@
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7683,7 +7694,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7712,7 +7723,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7741,7 +7752,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7770,7 +7781,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7799,7 +7810,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -7828,7 +7839,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7857,7 +7868,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -7886,7 +7897,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -7915,7 +7926,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7943,8 +7954,16 @@
       <c r="I10" s="11" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>SUM(G9:G12)</f>
+        <v>261</v>
+      </c>
+      <c r="L10">
+        <f>SUM(H9:H12)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -7973,7 +7992,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -8002,7 +8021,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -8031,7 +8050,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -8060,7 +8079,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -8089,7 +8108,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>

--- a/metadata/C3H10_10X_Metadata.xlsx
+++ b/metadata/C3H10_10X_Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gardeux\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TF-seq\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE18494-B7A5-40EF-AB0A-D401249857CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544F7C1D-62E6-47C3-9648-C6C8D7D22C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3H10_10X_Metadata" sheetId="1" r:id="rId1"/>
@@ -5616,9 +5616,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Matureadipo</t>
-  </si>
-  <si>
     <t>not found</t>
   </si>
   <si>
@@ -6058,22 +6055,6 @@
   </si>
   <si>
     <t>less than 8 cells: excluded</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">None called as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Matureadipo</t>
-    </r>
   </si>
   <si>
     <t>2 missing?</t>
@@ -6754,6 +6735,12 @@
     <t>D0_osteo</t>
   </si>
   <si>
+    <t>Adipo_ref</t>
+  </si>
+  <si>
+    <t>None called as Adipo_ref</t>
+  </si>
+  <si>
     <r>
       <t>Renamed</t>
     </r>
@@ -6766,7 +6753,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Myod1</t>
+      <t xml:space="preserve"> Myo_ref</t>
     </r>
   </si>
 </sst>
@@ -7647,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="M614" sqref="M614"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="K618" sqref="K618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7685,7 +7672,7 @@
         <v>1850</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>1859</v>
@@ -7778,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7807,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7836,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7923,7 +7910,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7952,7 +7939,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="K10">
         <f>SUM(G9:G12)</f>
@@ -7989,7 +7976,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8018,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8047,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8076,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8105,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8836,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -9157,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -9186,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -9215,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -9302,7 +9289,7 @@
         <v>17</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -9331,7 +9318,7 @@
         <v>26</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -9360,7 +9347,7 @@
         <v>11</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -9389,7 +9376,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -9418,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -9447,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -9476,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -9505,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -9560,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -9719,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -9826,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -9855,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -9884,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -10069,7 +10056,7 @@
         <v>39</v>
       </c>
       <c r="I88" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -10098,7 +10085,7 @@
         <v>63</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -10127,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -10182,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -10237,7 +10224,7 @@
         <v>53</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -10266,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -10347,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -10376,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -10405,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -10460,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -10489,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -10570,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -10625,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -10654,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -10683,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -10712,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -10845,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -10900,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -10955,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -11010,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -11065,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -11094,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -11331,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -11412,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -11546,7 +11533,7 @@
         <v>93</v>
       </c>
       <c r="I142" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -11575,7 +11562,7 @@
         <v>56</v>
       </c>
       <c r="I143" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -11604,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -11737,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -12052,7 +12039,7 @@
         <v>105</v>
       </c>
       <c r="I161" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -12861,7 +12848,7 @@
         <v>78</v>
       </c>
       <c r="I192" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -12994,7 +12981,7 @@
         <v>40</v>
       </c>
       <c r="I197" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -13367,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -13396,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -13425,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -13454,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -13483,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -13512,7 +13499,7 @@
         <v>37</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -13541,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -13570,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -13628,7 +13615,7 @@
         <v>37</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -13648,7 +13635,7 @@
         <v>462</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G221" s="1">
         <v>0</v>
@@ -13657,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -13686,7 +13673,7 @@
         <v>12</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -13770,7 +13757,7 @@
         <v>33</v>
       </c>
       <c r="I225" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -13851,7 +13838,7 @@
         <v>23</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -14062,7 +14049,7 @@
         <v>64</v>
       </c>
       <c r="I236" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -14143,7 +14130,7 @@
         <v>22</v>
       </c>
       <c r="I239" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -14172,7 +14159,7 @@
         <v>38</v>
       </c>
       <c r="I240" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -14513,7 +14500,7 @@
         <v>73</v>
       </c>
       <c r="I253" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -14542,7 +14529,7 @@
         <v>98</v>
       </c>
       <c r="I254" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -14805,7 +14792,7 @@
         <v>48</v>
       </c>
       <c r="I264" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -15198,7 +15185,7 @@
         <v>19</v>
       </c>
       <c r="I279" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -15383,7 +15370,7 @@
         <v>18</v>
       </c>
       <c r="I286" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -15620,7 +15607,7 @@
         <v>61</v>
       </c>
       <c r="I295" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -15915,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -15944,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -15973,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -16002,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -16031,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -16060,7 +16047,7 @@
         <v>21</v>
       </c>
       <c r="I311" s="13" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -16089,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -16118,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -16176,7 +16163,7 @@
         <v>27</v>
       </c>
       <c r="I315" s="13" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -16196,7 +16183,7 @@
         <v>743</v>
       </c>
       <c r="F316" s="14" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G316" s="1">
         <v>0</v>
@@ -16205,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -16234,7 +16221,7 @@
         <v>5</v>
       </c>
       <c r="I317" s="13" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -16318,7 +16305,7 @@
         <v>31</v>
       </c>
       <c r="I320" s="13" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -16399,7 +16386,7 @@
         <v>63</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -16428,7 +16415,7 @@
         <v>60</v>
       </c>
       <c r="I324" s="5" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -16639,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -16772,7 +16759,7 @@
         <v>72</v>
       </c>
       <c r="I337" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -16853,7 +16840,7 @@
         <v>68</v>
       </c>
       <c r="I340" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -16882,7 +16869,7 @@
         <v>90</v>
       </c>
       <c r="I341" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -16911,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -16966,7 +16953,7 @@
         <v>39</v>
       </c>
       <c r="I344" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -17723,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
@@ -17752,7 +17739,7 @@
         <v>24</v>
       </c>
       <c r="I374" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.25">
@@ -17963,7 +17950,7 @@
         <v>42</v>
       </c>
       <c r="I382" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.25">
@@ -17992,7 +17979,7 @@
         <v>72</v>
       </c>
       <c r="I383" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -18047,7 +18034,7 @@
         <v>30</v>
       </c>
       <c r="I385" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -18128,7 +18115,7 @@
         <v>31</v>
       </c>
       <c r="I388" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -18339,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -18570,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -18657,7 +18644,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
@@ -18686,7 +18673,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -18715,7 +18702,7 @@
         <v>28</v>
       </c>
       <c r="I409" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -18744,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="s">
-        <v>1894</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="411" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -18773,7 +18760,7 @@
         <v>1</v>
       </c>
       <c r="I411" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="412" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -18857,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="J414" s="5"/>
     </row>
@@ -18999,7 +18986,7 @@
         <v>19</v>
       </c>
       <c r="I419" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="J419" s="5"/>
     </row>
@@ -19057,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="I421" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J421" s="5"/>
     </row>
@@ -19171,7 +19158,7 @@
         <v>56</v>
       </c>
       <c r="I425" s="5" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="J425" s="5"/>
     </row>
@@ -19229,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="I427" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J427" s="5"/>
     </row>
@@ -19259,7 +19246,7 @@
         <v>9</v>
       </c>
       <c r="I428" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="J428" s="5"/>
     </row>
@@ -19513,7 +19500,7 @@
         <v>0</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J437" s="5"/>
     </row>
@@ -19571,7 +19558,7 @@
         <v>14</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="J439" s="5"/>
     </row>
@@ -19601,7 +19588,7 @@
         <v>44</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="J440" s="5"/>
     </row>
@@ -20135,7 +20122,7 @@
         <v>24</v>
       </c>
       <c r="I459" s="5" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="J459" s="5"/>
     </row>
@@ -20277,7 +20264,7 @@
         <v>129</v>
       </c>
       <c r="I464" s="5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="J464" s="5"/>
     </row>
@@ -20419,7 +20406,7 @@
         <v>51</v>
       </c>
       <c r="I469" s="8" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="J469" s="5"/>
     </row>
@@ -20685,7 +20672,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J478" s="5"/>
     </row>
@@ -20715,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J479" s="5"/>
     </row>
@@ -20745,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J480" s="5"/>
     </row>
@@ -20766,7 +20753,7 @@
         <v>1335</v>
       </c>
       <c r="F481" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G481">
         <v>63</v>
@@ -20775,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J481" s="5"/>
     </row>
@@ -20796,7 +20783,7 @@
         <v>1335</v>
       </c>
       <c r="F482" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G482">
         <v>88</v>
@@ -20805,7 +20792,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J482" s="5"/>
     </row>
@@ -20826,7 +20813,7 @@
         <v>1335</v>
       </c>
       <c r="F483" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G483">
         <v>58</v>
@@ -20835,7 +20822,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J483" s="5"/>
     </row>
@@ -20865,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J484" s="5"/>
     </row>
@@ -20895,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J485" s="5"/>
     </row>
@@ -20925,7 +20912,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="J486" s="5"/>
     </row>
@@ -20955,7 +20942,7 @@
         <v>24</v>
       </c>
       <c r="I487" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J487" s="5"/>
     </row>
@@ -20985,7 +20972,7 @@
         <v>25</v>
       </c>
       <c r="I488" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J488" s="5"/>
     </row>
@@ -21015,7 +21002,7 @@
         <v>14</v>
       </c>
       <c r="I489" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J489" s="5"/>
     </row>
@@ -21036,7 +21023,7 @@
         <v>1335</v>
       </c>
       <c r="F490" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G490">
         <v>53</v>
@@ -21045,7 +21032,7 @@
         <v>16</v>
       </c>
       <c r="I490" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J490" s="5"/>
     </row>
@@ -21066,7 +21053,7 @@
         <v>1335</v>
       </c>
       <c r="F491" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G491">
         <v>68</v>
@@ -21075,7 +21062,7 @@
         <v>26</v>
       </c>
       <c r="I491" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J491" s="5"/>
     </row>
@@ -21096,7 +21083,7 @@
         <v>1335</v>
       </c>
       <c r="F492" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G492">
         <v>61</v>
@@ -21105,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="I492" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J492" s="5"/>
     </row>
@@ -21135,7 +21122,7 @@
         <v>3</v>
       </c>
       <c r="I493" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J493" s="5"/>
     </row>
@@ -21165,7 +21152,7 @@
         <v>2</v>
       </c>
       <c r="I494" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J494" s="5"/>
     </row>
@@ -21195,7 +21182,7 @@
         <v>4</v>
       </c>
       <c r="I495" s="15" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
       <c r="J495" s="5"/>
     </row>
@@ -21278,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -21411,7 +21398,7 @@
         <v>105</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -21882,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="I521" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.25">
@@ -22015,7 +22002,7 @@
         <v>41</v>
       </c>
       <c r="I526" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.25">
@@ -22070,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="I528" s="5" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.25">
@@ -22099,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.25">
@@ -22154,7 +22141,7 @@
         <v>73</v>
       </c>
       <c r="I531" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
@@ -22339,7 +22326,7 @@
         <v>67</v>
       </c>
       <c r="I538" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.25">
@@ -22550,7 +22537,7 @@
         <v>72</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
@@ -22605,7 +22592,7 @@
         <v>119</v>
       </c>
       <c r="I548" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.25">
@@ -22634,7 +22621,7 @@
         <v>70</v>
       </c>
       <c r="I549" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -22663,7 +22650,7 @@
         <v>91</v>
       </c>
       <c r="I550" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.25">
@@ -22770,7 +22757,7 @@
         <v>63</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.25">
@@ -23146,7 +23133,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
@@ -23175,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
@@ -23204,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
@@ -23224,7 +23211,7 @@
         <v>1538</v>
       </c>
       <c r="F571" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G571">
         <v>55</v>
@@ -23233,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
@@ -23253,7 +23240,7 @@
         <v>1538</v>
       </c>
       <c r="F572" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G572">
         <v>68</v>
@@ -23262,7 +23249,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
@@ -23282,7 +23269,7 @@
         <v>1538</v>
       </c>
       <c r="F573" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G573">
         <v>73</v>
@@ -23291,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
@@ -23320,7 +23307,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
@@ -23349,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
@@ -23378,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
@@ -23407,7 +23394,7 @@
         <v>33</v>
       </c>
       <c r="I577" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
@@ -23436,7 +23423,7 @@
         <v>34</v>
       </c>
       <c r="I578" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.25">
@@ -23465,7 +23452,7 @@
         <v>16</v>
       </c>
       <c r="I579" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
@@ -23485,7 +23472,7 @@
         <v>1538</v>
       </c>
       <c r="F580" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G580">
         <v>65</v>
@@ -23494,7 +23481,7 @@
         <v>23</v>
       </c>
       <c r="I580" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.25">
@@ -23514,7 +23501,7 @@
         <v>1538</v>
       </c>
       <c r="F581" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G581">
         <v>70</v>
@@ -23523,7 +23510,7 @@
         <v>30</v>
       </c>
       <c r="I581" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.25">
@@ -23543,7 +23530,7 @@
         <v>1538</v>
       </c>
       <c r="F582" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G582">
         <v>57</v>
@@ -23552,7 +23539,7 @@
         <v>4</v>
       </c>
       <c r="I582" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
@@ -23581,7 +23568,7 @@
         <v>4</v>
       </c>
       <c r="I583" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.25">
@@ -23610,7 +23597,7 @@
         <v>4</v>
       </c>
       <c r="I584" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.25">
@@ -23639,7 +23626,7 @@
         <v>8</v>
       </c>
       <c r="I585" s="16" t="s">
-        <v>1861</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -23673,7 +23660,7 @@
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="17" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B587" s="5" t="s">
         <v>1831</v>
@@ -23697,12 +23684,12 @@
         <v>333</v>
       </c>
       <c r="I587" s="19" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="17" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B588" s="5" t="s">
         <v>1831</v>
@@ -23726,7 +23713,7 @@
         <v>386</v>
       </c>
       <c r="I588" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.25">
@@ -23755,12 +23742,12 @@
         <v>0</v>
       </c>
       <c r="I589" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="17" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B590" s="5" t="s">
         <v>1831</v>
@@ -23784,7 +23771,7 @@
         <v>6</v>
       </c>
       <c r="I590" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.25">
@@ -23813,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
@@ -23842,12 +23829,12 @@
         <v>0</v>
       </c>
       <c r="I592" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="17" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B593" t="s">
         <v>1846</v>
@@ -23862,7 +23849,7 @@
         <v>1796</v>
       </c>
       <c r="F593" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="G593">
         <v>270</v>
@@ -23871,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.25">
@@ -23891,7 +23878,7 @@
         <v>1796</v>
       </c>
       <c r="F594" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="G594" s="1">
         <v>0</v>
@@ -23900,12 +23887,12 @@
         <v>0</v>
       </c>
       <c r="I594" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="17" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="B595" t="s">
         <v>1809</v>
@@ -23920,7 +23907,7 @@
         <v>1796</v>
       </c>
       <c r="F595" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="G595">
         <v>187</v>
@@ -23929,12 +23916,12 @@
         <v>0</v>
       </c>
       <c r="I595" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="20" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B596" s="5" t="s">
         <v>1795</v>
@@ -23949,7 +23936,7 @@
         <v>1796</v>
       </c>
       <c r="F596" s="5" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="G596">
         <v>201</v>
@@ -23958,12 +23945,12 @@
         <v>0</v>
       </c>
       <c r="I596" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="17" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B597" t="s">
         <v>1808</v>
@@ -23987,12 +23974,12 @@
         <v>0</v>
       </c>
       <c r="I597" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="17" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B598" t="s">
         <v>1849</v>
@@ -24016,12 +24003,12 @@
         <v>0</v>
       </c>
       <c r="I598" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="17" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B599" t="s">
         <v>1799</v>
@@ -24045,12 +24032,12 @@
         <v>0</v>
       </c>
       <c r="I599" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="17" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="B600" t="s">
         <v>1806</v>
@@ -24074,12 +24061,12 @@
         <v>0</v>
       </c>
       <c r="I600" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="17" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="B601" t="s">
         <v>1807</v>
@@ -24108,7 +24095,7 @@
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="17" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B602" t="s">
         <v>1802</v>
@@ -24166,7 +24153,7 @@
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="17" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B604" t="s">
         <v>1815</v>
@@ -24181,7 +24168,7 @@
         <v>1796</v>
       </c>
       <c r="F604" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="G604" s="1">
         <v>0</v>
@@ -24190,12 +24177,12 @@
         <v>0</v>
       </c>
       <c r="I604" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="17" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B605" t="s">
         <v>1817</v>
@@ -24210,7 +24197,7 @@
         <v>1796</v>
       </c>
       <c r="F605" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="G605">
         <v>193</v>
@@ -24219,12 +24206,12 @@
         <v>0</v>
       </c>
       <c r="I605" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="17" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B606" t="s">
         <v>1834</v>
@@ -24239,7 +24226,7 @@
         <v>1796</v>
       </c>
       <c r="F606" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="G606">
         <v>199</v>
@@ -24248,12 +24235,12 @@
         <v>0</v>
       </c>
       <c r="I606" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="17" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="B607" t="s">
         <v>1800</v>
@@ -24268,7 +24255,7 @@
         <v>1796</v>
       </c>
       <c r="F607" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="G607">
         <v>139</v>
@@ -24277,7 +24264,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
@@ -24311,7 +24298,7 @@
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="17" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B609" t="s">
         <v>1816</v>
@@ -24335,12 +24322,12 @@
         <v>1024</v>
       </c>
       <c r="I609" s="16" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="17" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B610" t="s">
         <v>1816</v>
@@ -24364,12 +24351,12 @@
         <v>113</v>
       </c>
       <c r="I610" s="16" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="17" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B611" t="s">
         <v>1816</v>
@@ -24393,12 +24380,12 @@
         <v>971</v>
       </c>
       <c r="I611" s="16" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="17" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B612" t="s">
         <v>1816</v>
@@ -24422,7 +24409,7 @@
         <v>829</v>
       </c>
       <c r="I612" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.25">
@@ -24451,7 +24438,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.25">
@@ -24480,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.25">
@@ -24509,12 +24496,12 @@
         <v>0</v>
       </c>
       <c r="I615" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="17" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B616" t="s">
         <v>1838</v>
@@ -24529,7 +24516,7 @@
         <v>1796</v>
       </c>
       <c r="F616" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="G616">
         <v>337</v>
@@ -24543,7 +24530,7 @@
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="17" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="B617" t="s">
         <v>1805</v>
@@ -24558,7 +24545,7 @@
         <v>1796</v>
       </c>
       <c r="F617" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="G617">
         <v>403</v>
@@ -24572,7 +24559,7 @@
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="17" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B618" t="s">
         <v>1847</v>
@@ -24587,7 +24574,7 @@
         <v>1796</v>
       </c>
       <c r="F618" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="G618">
         <v>481</v>
@@ -24601,7 +24588,7 @@
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="17" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="B619" t="s">
         <v>1844</v>
@@ -24616,7 +24603,7 @@
         <v>1796</v>
       </c>
       <c r="F619" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="G619">
         <v>737</v>
@@ -24630,7 +24617,7 @@
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="17" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B620" t="s">
         <v>1829</v>
@@ -24645,7 +24632,7 @@
         <v>1796</v>
       </c>
       <c r="F620" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="G620">
         <v>286</v>
@@ -24659,7 +24646,7 @@
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="17" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B621" t="s">
         <v>1820</v>
@@ -24674,7 +24661,7 @@
         <v>1796</v>
       </c>
       <c r="F621" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="G621" s="1">
         <v>0</v>
@@ -24683,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
@@ -24712,12 +24699,12 @@
         <v>6</v>
       </c>
       <c r="I622" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="17" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B623" t="s">
         <v>1818</v>
@@ -24741,12 +24728,12 @@
         <v>4</v>
       </c>
       <c r="I623" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="17" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B624" t="s">
         <v>1818</v>
@@ -24770,12 +24757,12 @@
         <v>402</v>
       </c>
       <c r="I624" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="17" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B625" t="s">
         <v>1818</v>
@@ -24799,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.25">
@@ -24807,7 +24794,7 @@
         <v>739</v>
       </c>
       <c r="B626" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C626" t="s">
         <v>300</v>
@@ -24828,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -24836,7 +24823,7 @@
         <v>1821</v>
       </c>
       <c r="B627" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C627" t="s">
         <v>304</v>
@@ -24857,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
@@ -24865,7 +24852,7 @@
         <v>1841</v>
       </c>
       <c r="B628" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C628" t="s">
         <v>308</v>
@@ -24886,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.25">
@@ -24894,7 +24881,7 @@
         <v>1824</v>
       </c>
       <c r="B629" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C629" t="s">
         <v>312</v>
@@ -24915,7 +24902,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.25">
@@ -24923,7 +24910,7 @@
         <v>1827</v>
       </c>
       <c r="B630" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C630" t="s">
         <v>1828</v>
@@ -24944,15 +24931,15 @@
         <v>0</v>
       </c>
       <c r="I630" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="17" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B631" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C631" t="s">
         <v>1835</v>
@@ -24973,15 +24960,15 @@
         <v>37</v>
       </c>
       <c r="I631" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" s="17" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B632" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C632" t="s">
         <v>172</v>
@@ -25002,7 +24989,7 @@
         <v>278</v>
       </c>
       <c r="I632" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.25">
@@ -25010,7 +24997,7 @@
         <v>1287</v>
       </c>
       <c r="B633" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C633" t="s">
         <v>839</v>
@@ -25031,7 +25018,7 @@
         <v>1371</v>
       </c>
       <c r="I633" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
@@ -25039,7 +25026,7 @@
         <v>1837</v>
       </c>
       <c r="B634" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C634" t="s">
         <v>315</v>
@@ -25060,7 +25047,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.25">
@@ -25068,7 +25055,7 @@
         <v>1812</v>
       </c>
       <c r="B635" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C635" t="s">
         <v>1813</v>
@@ -25089,7 +25076,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.25">
@@ -25097,7 +25084,7 @@
         <v>1845</v>
       </c>
       <c r="B636" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C636" t="s">
         <v>345</v>
@@ -25118,7 +25105,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.25">
@@ -25126,7 +25113,7 @@
         <v>1797</v>
       </c>
       <c r="B637" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C637" t="s">
         <v>349</v>
@@ -25147,15 +25134,15 @@
         <v>0</v>
       </c>
       <c r="I637" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="17" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B638" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C638" t="s">
         <v>353</v>
@@ -25176,15 +25163,15 @@
         <v>883</v>
       </c>
       <c r="I638" s="16" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="17" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B639" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="E639" t="s">
         <v>1796</v>
@@ -25199,15 +25186,15 @@
         <v>75</v>
       </c>
       <c r="I639" s="18" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="17" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B640" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="E640" t="s">
         <v>1796</v>
@@ -25222,15 +25209,15 @@
         <v>44</v>
       </c>
       <c r="I640" s="18" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="17" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B641" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="E641" t="s">
         <v>1796</v>
@@ -25245,15 +25232,15 @@
         <v>406</v>
       </c>
       <c r="I641" s="18" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="17" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B642" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="E642" t="s">
         <v>1796</v>
@@ -25268,15 +25255,15 @@
         <v>99</v>
       </c>
       <c r="I642" s="18" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="17" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B643" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="E643" t="s">
         <v>1796</v>
@@ -25291,15 +25278,15 @@
         <v>518</v>
       </c>
       <c r="I643" s="18" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="17" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B644" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E644" t="s">
         <v>1796</v>
@@ -25314,15 +25301,15 @@
         <v>183</v>
       </c>
       <c r="I644" s="18" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="17" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B645" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="E645" t="s">
         <v>1796</v>
@@ -25337,7 +25324,7 @@
         <v>383</v>
       </c>
       <c r="I645" s="18" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/C3H10_10X_Metadata.xlsx
+++ b/metadata/C3H10_10X_Metadata.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TF-seq\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\updeplanas2.epfl.ch\DeplanckeNAS2\TF-seq\Wangjie\TF-seq_GitHub\TF-seq\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544F7C1D-62E6-47C3-9648-C6C8D7D22C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D53707-E8BC-4CB8-8AAB-43DF80E2A947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3H10_10X_Metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4088" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="1991">
   <si>
     <t>TF_name</t>
   </si>
@@ -6755,6 +6744,9 @@
       </rPr>
       <t xml:space="preserve"> Myo_ref</t>
     </r>
+  </si>
+  <si>
+    <t>Renamed Tada2a</t>
   </si>
 </sst>
 </file>
@@ -6900,6 +6892,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7634,25 +7627,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="K618" sqref="K618"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="G351" sqref="G351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -7681,7 +7674,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7710,7 +7703,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7739,7 +7732,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7768,7 +7761,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7797,7 +7790,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -7826,7 +7819,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7855,7 +7848,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -7884,7 +7877,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -7913,7 +7906,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7950,7 +7943,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -7979,7 +7972,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -8008,7 +8001,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -8037,7 +8030,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -8066,7 +8059,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -8095,7 +8088,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -8121,7 +8114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -8147,7 +8140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -8173,7 +8166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -8199,7 +8192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -8225,7 +8218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -8251,7 +8244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -8277,7 +8270,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -8303,7 +8296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -8329,7 +8322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -8355,7 +8348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -8381,7 +8374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -8407,7 +8400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -8433,7 +8426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -8459,7 +8452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -8485,7 +8478,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -8511,7 +8504,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -8537,7 +8530,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -8563,7 +8556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -8589,7 +8582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -8615,7 +8608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -8641,7 +8634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -8667,7 +8660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -8693,7 +8686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -8719,7 +8712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -8745,7 +8738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -8771,7 +8764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -8797,7 +8790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -8826,7 +8819,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -8852,7 +8845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -8878,7 +8871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -8904,7 +8897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -8930,7 +8923,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -8956,7 +8949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -8982,7 +8975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -9008,7 +9001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -9034,7 +9027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>170</v>
       </c>
@@ -9060,7 +9053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -9089,7 +9082,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>10</v>
       </c>
@@ -9118,7 +9111,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -9147,7 +9140,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -9176,7 +9169,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -9205,7 +9198,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -9234,7 +9227,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -9263,7 +9256,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -9292,7 +9285,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -9321,7 +9314,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -9350,7 +9343,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -9379,7 +9372,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>175</v>
       </c>
@@ -9408,7 +9401,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -9437,7 +9430,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -9466,7 +9459,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -9495,7 +9488,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>179</v>
       </c>
@@ -9521,7 +9514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>183</v>
       </c>
@@ -9550,7 +9543,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -9576,7 +9569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -9602,7 +9595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -9628,7 +9621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -9654,7 +9647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -9680,7 +9673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>206</v>
       </c>
@@ -9709,7 +9702,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -9735,7 +9728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>214</v>
       </c>
@@ -9761,7 +9754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -9787,7 +9780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -9816,7 +9809,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>226</v>
       </c>
@@ -9845,7 +9838,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>230</v>
       </c>
@@ -9874,7 +9867,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>234</v>
       </c>
@@ -9900,7 +9893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>238</v>
       </c>
@@ -9926,7 +9919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>242</v>
       </c>
@@ -9952,7 +9945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -9978,7 +9971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>250</v>
       </c>
@@ -10004,7 +9997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>254</v>
       </c>
@@ -10030,7 +10023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>258</v>
       </c>
@@ -10059,7 +10052,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>262</v>
       </c>
@@ -10088,7 +10081,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>266</v>
       </c>
@@ -10117,7 +10110,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -10143,7 +10136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -10172,7 +10165,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>278</v>
       </c>
@@ -10198,7 +10191,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -10227,7 +10220,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -10256,7 +10249,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>290</v>
       </c>
@@ -10282,7 +10275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>294</v>
       </c>
@@ -10308,7 +10301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>298</v>
       </c>
@@ -10337,7 +10330,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>302</v>
       </c>
@@ -10366,7 +10359,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>306</v>
       </c>
@@ -10395,7 +10388,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>310</v>
       </c>
@@ -10421,7 +10414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>152</v>
       </c>
@@ -10450,7 +10443,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>317</v>
       </c>
@@ -10479,7 +10472,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>321</v>
       </c>
@@ -10505,7 +10498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>325</v>
       </c>
@@ -10531,7 +10524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>86</v>
       </c>
@@ -10560,7 +10553,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>77</v>
       </c>
@@ -10586,7 +10579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>335</v>
       </c>
@@ -10615,7 +10608,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -10644,7 +10637,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>343</v>
       </c>
@@ -10673,7 +10666,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>347</v>
       </c>
@@ -10702,7 +10695,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>351</v>
       </c>
@@ -10728,7 +10721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>355</v>
       </c>
@@ -10754,7 +10747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>359</v>
       </c>
@@ -10780,7 +10773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>363</v>
       </c>
@@ -10806,7 +10799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>367</v>
       </c>
@@ -10835,7 +10828,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>371</v>
       </c>
@@ -10861,7 +10854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>375</v>
       </c>
@@ -10890,7 +10883,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>379</v>
       </c>
@@ -10916,7 +10909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>383</v>
       </c>
@@ -10945,7 +10938,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>387</v>
       </c>
@@ -10971,7 +10964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>391</v>
       </c>
@@ -11000,7 +10993,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>395</v>
       </c>
@@ -11026,7 +11019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -11055,7 +11048,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>402</v>
       </c>
@@ -11084,7 +11077,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>406</v>
       </c>
@@ -11110,7 +11103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>410</v>
       </c>
@@ -11136,7 +11129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>414</v>
       </c>
@@ -11162,7 +11155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>418</v>
       </c>
@@ -11188,7 +11181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>422</v>
       </c>
@@ -11214,7 +11207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>426</v>
       </c>
@@ -11240,7 +11233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>430</v>
       </c>
@@ -11266,7 +11259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>434</v>
       </c>
@@ -11292,7 +11285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>438</v>
       </c>
@@ -11321,7 +11314,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>442</v>
       </c>
@@ -11347,7 +11340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>446</v>
       </c>
@@ -11373,7 +11366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>450</v>
       </c>
@@ -11402,7 +11395,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>454</v>
       </c>
@@ -11428,7 +11421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>458</v>
       </c>
@@ -11455,7 +11448,7 @@
       </c>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>463</v>
       </c>
@@ -11481,7 +11474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>467</v>
       </c>
@@ -11507,7 +11500,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>471</v>
       </c>
@@ -11536,7 +11529,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>475</v>
       </c>
@@ -11565,7 +11558,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>479</v>
       </c>
@@ -11594,7 +11587,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>483</v>
       </c>
@@ -11620,7 +11613,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>487</v>
       </c>
@@ -11646,7 +11639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>491</v>
       </c>
@@ -11672,7 +11665,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>495</v>
       </c>
@@ -11698,7 +11691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>499</v>
       </c>
@@ -11727,7 +11720,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>503</v>
       </c>
@@ -11753,7 +11746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>507</v>
       </c>
@@ -11779,7 +11772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>511</v>
       </c>
@@ -11805,7 +11798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>515</v>
       </c>
@@ -11831,7 +11824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>519</v>
       </c>
@@ -11857,7 +11850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>523</v>
       </c>
@@ -11883,7 +11876,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>527</v>
       </c>
@@ -11909,7 +11902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>531</v>
       </c>
@@ -11935,7 +11928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>535</v>
       </c>
@@ -11961,7 +11954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>539</v>
       </c>
@@ -11987,7 +11980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>543</v>
       </c>
@@ -12013,7 +12006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>547</v>
       </c>
@@ -12042,7 +12035,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>551</v>
       </c>
@@ -12068,7 +12061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>555</v>
       </c>
@@ -12094,7 +12087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>559</v>
       </c>
@@ -12120,7 +12113,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>563</v>
       </c>
@@ -12146,7 +12139,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>567</v>
       </c>
@@ -12172,7 +12165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>571</v>
       </c>
@@ -12198,7 +12191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>575</v>
       </c>
@@ -12224,7 +12217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>579</v>
       </c>
@@ -12250,7 +12243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>583</v>
       </c>
@@ -12276,7 +12269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>587</v>
       </c>
@@ -12302,7 +12295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>591</v>
       </c>
@@ -12328,7 +12321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>595</v>
       </c>
@@ -12354,7 +12347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>599</v>
       </c>
@@ -12380,7 +12373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>603</v>
       </c>
@@ -12406,7 +12399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>607</v>
       </c>
@@ -12432,7 +12425,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>611</v>
       </c>
@@ -12458,7 +12451,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>615</v>
       </c>
@@ -12484,7 +12477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>619</v>
       </c>
@@ -12510,7 +12503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>623</v>
       </c>
@@ -12536,7 +12529,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>627</v>
       </c>
@@ -12562,7 +12555,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>631</v>
       </c>
@@ -12588,7 +12581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>635</v>
       </c>
@@ -12614,7 +12607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>639</v>
       </c>
@@ -12640,7 +12633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>643</v>
       </c>
@@ -12666,7 +12659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>647</v>
       </c>
@@ -12692,7 +12685,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>651</v>
       </c>
@@ -12718,7 +12711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>655</v>
       </c>
@@ -12744,7 +12737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>659</v>
       </c>
@@ -12770,7 +12763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>663</v>
       </c>
@@ -12796,7 +12789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>667</v>
       </c>
@@ -12822,7 +12815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>671</v>
       </c>
@@ -12851,7 +12844,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>675</v>
       </c>
@@ -12877,7 +12870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>679</v>
       </c>
@@ -12903,7 +12896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>683</v>
       </c>
@@ -12929,7 +12922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>687</v>
       </c>
@@ -12955,7 +12948,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>691</v>
       </c>
@@ -12984,7 +12977,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>695</v>
       </c>
@@ -13010,7 +13003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>699</v>
       </c>
@@ -13036,7 +13029,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>703</v>
       </c>
@@ -13062,7 +13055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>707</v>
       </c>
@@ -13088,7 +13081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>711</v>
       </c>
@@ -13114,7 +13107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>715</v>
       </c>
@@ -13140,7 +13133,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>719</v>
       </c>
@@ -13166,7 +13159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>723</v>
       </c>
@@ -13192,7 +13185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>727</v>
       </c>
@@ -13218,7 +13211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>731</v>
       </c>
@@ -13244,7 +13237,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>735</v>
       </c>
@@ -13270,7 +13263,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -13299,7 +13292,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -13328,7 +13321,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -13357,7 +13350,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>18</v>
       </c>
@@ -13386,7 +13379,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -13444,7 +13437,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>30</v>
       </c>
@@ -13473,7 +13466,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -13502,7 +13495,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -13531,7 +13524,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>42</v>
       </c>
@@ -13560,7 +13553,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -13589,7 +13582,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>175</v>
       </c>
@@ -13618,7 +13611,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>50</v>
       </c>
@@ -13647,7 +13640,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>54</v>
       </c>
@@ -13676,7 +13669,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>58</v>
       </c>
@@ -13705,7 +13698,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>170</v>
       </c>
@@ -13731,7 +13724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>740</v>
       </c>
@@ -13760,7 +13753,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>128</v>
       </c>
@@ -13786,7 +13779,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>134</v>
       </c>
@@ -13812,7 +13805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>741</v>
       </c>
@@ -13841,7 +13834,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>744</v>
       </c>
@@ -13867,7 +13860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>746</v>
       </c>
@@ -13893,7 +13886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>748</v>
       </c>
@@ -13919,7 +13912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>750</v>
       </c>
@@ -13945,7 +13938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>754</v>
       </c>
@@ -13971,7 +13964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>758</v>
       </c>
@@ -13997,7 +13990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>762</v>
       </c>
@@ -14023,7 +14016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>766</v>
       </c>
@@ -14052,7 +14045,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>770</v>
       </c>
@@ -14078,7 +14071,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>774</v>
       </c>
@@ -14104,7 +14097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>778</v>
       </c>
@@ -14133,7 +14126,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>782</v>
       </c>
@@ -14162,7 +14155,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>786</v>
       </c>
@@ -14188,7 +14181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>790</v>
       </c>
@@ -14214,7 +14207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>794</v>
       </c>
@@ -14240,7 +14233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>798</v>
       </c>
@@ -14266,7 +14259,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>802</v>
       </c>
@@ -14292,7 +14285,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>806</v>
       </c>
@@ -14318,7 +14311,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>810</v>
       </c>
@@ -14344,7 +14337,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>83</v>
       </c>
@@ -14370,7 +14363,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>817</v>
       </c>
@@ -14396,7 +14389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>821</v>
       </c>
@@ -14422,7 +14415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>825</v>
       </c>
@@ -14448,7 +14441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>829</v>
       </c>
@@ -14474,7 +14467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>833</v>
       </c>
@@ -14503,7 +14496,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>837</v>
       </c>
@@ -14532,7 +14525,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>841</v>
       </c>
@@ -14558,7 +14551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>845</v>
       </c>
@@ -14584,7 +14577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>849</v>
       </c>
@@ -14610,7 +14603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>853</v>
       </c>
@@ -14636,7 +14629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>857</v>
       </c>
@@ -14662,7 +14655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>861</v>
       </c>
@@ -14688,7 +14681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>865</v>
       </c>
@@ -14714,7 +14707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>869</v>
       </c>
@@ -14740,7 +14733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>873</v>
       </c>
@@ -14766,7 +14759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>101</v>
       </c>
@@ -14795,7 +14788,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>880</v>
       </c>
@@ -14821,7 +14814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>80</v>
       </c>
@@ -14847,7 +14840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>887</v>
       </c>
@@ -14873,7 +14866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>891</v>
       </c>
@@ -14899,7 +14892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>895</v>
       </c>
@@ -14925,7 +14918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>899</v>
       </c>
@@ -14951,7 +14944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>903</v>
       </c>
@@ -14977,7 +14970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>907</v>
       </c>
@@ -15003,7 +14996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>911</v>
       </c>
@@ -15029,7 +15022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>915</v>
       </c>
@@ -15055,7 +15048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>919</v>
       </c>
@@ -15081,7 +15074,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>923</v>
       </c>
@@ -15107,7 +15100,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>927</v>
       </c>
@@ -15133,7 +15126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>931</v>
       </c>
@@ -15159,7 +15152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>935</v>
       </c>
@@ -15188,7 +15181,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>939</v>
       </c>
@@ -15214,7 +15207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>943</v>
       </c>
@@ -15240,7 +15233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>947</v>
       </c>
@@ -15266,7 +15259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>951</v>
       </c>
@@ -15292,7 +15285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>955</v>
       </c>
@@ -15318,7 +15311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>959</v>
       </c>
@@ -15344,7 +15337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>963</v>
       </c>
@@ -15373,7 +15366,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>967</v>
       </c>
@@ -15399,7 +15392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>971</v>
       </c>
@@ -15425,7 +15418,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>975</v>
       </c>
@@ -15451,7 +15444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>979</v>
       </c>
@@ -15477,7 +15470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>983</v>
       </c>
@@ -15503,7 +15496,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>986</v>
       </c>
@@ -15529,7 +15522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>990</v>
       </c>
@@ -15555,7 +15548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>994</v>
       </c>
@@ -15581,7 +15574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>998</v>
       </c>
@@ -15610,7 +15603,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1002</v>
       </c>
@@ -15636,7 +15629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1006</v>
       </c>
@@ -15662,7 +15655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1010</v>
       </c>
@@ -15688,7 +15681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1014</v>
       </c>
@@ -15714,7 +15707,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1018</v>
       </c>
@@ -15740,7 +15733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1022</v>
       </c>
@@ -15766,7 +15759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1026</v>
       </c>
@@ -15792,7 +15785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1030</v>
       </c>
@@ -15818,7 +15811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -15847,7 +15840,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>10</v>
       </c>
@@ -15876,7 +15869,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -15905,7 +15898,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>18</v>
       </c>
@@ -15934,7 +15927,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>22</v>
       </c>
@@ -15963,7 +15956,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -15992,7 +15985,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -16021,7 +16014,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>34</v>
       </c>
@@ -16050,7 +16043,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>38</v>
       </c>
@@ -16079,7 +16072,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>42</v>
       </c>
@@ -16108,7 +16101,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>46</v>
       </c>
@@ -16137,7 +16130,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>175</v>
       </c>
@@ -16166,7 +16159,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>50</v>
       </c>
@@ -16195,7 +16188,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>54</v>
       </c>
@@ -16224,7 +16217,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>58</v>
       </c>
@@ -16253,7 +16246,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>170</v>
       </c>
@@ -16279,7 +16272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>740</v>
       </c>
@@ -16308,7 +16301,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>128</v>
       </c>
@@ -16334,7 +16327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>134</v>
       </c>
@@ -16360,7 +16353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>1034</v>
       </c>
@@ -16389,7 +16382,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1037</v>
       </c>
@@ -16418,7 +16411,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1039</v>
       </c>
@@ -16444,7 +16437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1043</v>
       </c>
@@ -16470,7 +16463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1045</v>
       </c>
@@ -16496,7 +16489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1049</v>
       </c>
@@ -16522,7 +16515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1053</v>
       </c>
@@ -16548,7 +16541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1057</v>
       </c>
@@ -16574,7 +16567,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1061</v>
       </c>
@@ -16600,7 +16593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1065</v>
       </c>
@@ -16629,7 +16622,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1069</v>
       </c>
@@ -16655,7 +16648,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1073</v>
       </c>
@@ -16681,7 +16674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1077</v>
       </c>
@@ -16707,7 +16700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1081</v>
       </c>
@@ -16733,7 +16726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1085</v>
       </c>
@@ -16762,7 +16755,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1089</v>
       </c>
@@ -16788,7 +16781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1093</v>
       </c>
@@ -16814,7 +16807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1097</v>
       </c>
@@ -16843,7 +16836,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1101</v>
       </c>
@@ -16872,7 +16865,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1105</v>
       </c>
@@ -16901,7 +16894,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1109</v>
       </c>
@@ -16926,8 +16919,11 @@
       <c r="H343">
         <v>62</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I343" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1113</v>
       </c>
@@ -16956,7 +16952,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1117</v>
       </c>
@@ -16982,7 +16978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1121</v>
       </c>
@@ -17008,7 +17004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1125</v>
       </c>
@@ -17034,7 +17030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1129</v>
       </c>
@@ -17060,7 +17056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1133</v>
       </c>
@@ -17086,7 +17082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1137</v>
       </c>
@@ -17112,7 +17108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1141</v>
       </c>
@@ -17138,7 +17134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1145</v>
       </c>
@@ -17164,7 +17160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1149</v>
       </c>
@@ -17190,7 +17186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1153</v>
       </c>
@@ -17216,7 +17212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1157</v>
       </c>
@@ -17242,7 +17238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1161</v>
       </c>
@@ -17268,7 +17264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1165</v>
       </c>
@@ -17294,7 +17290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1169</v>
       </c>
@@ -17320,7 +17316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1173</v>
       </c>
@@ -17346,7 +17342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1177</v>
       </c>
@@ -17372,7 +17368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1181</v>
       </c>
@@ -17398,7 +17394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1185</v>
       </c>
@@ -17424,7 +17420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1189</v>
       </c>
@@ -17450,7 +17446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1193</v>
       </c>
@@ -17476,7 +17472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1197</v>
       </c>
@@ -17502,7 +17498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1201</v>
       </c>
@@ -17528,7 +17524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1205</v>
       </c>
@@ -17554,7 +17550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1209</v>
       </c>
@@ -17580,7 +17576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1213</v>
       </c>
@@ -17606,7 +17602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1217</v>
       </c>
@@ -17632,7 +17628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1221</v>
       </c>
@@ -17658,7 +17654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1225</v>
       </c>
@@ -17684,7 +17680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1229</v>
       </c>
@@ -17713,7 +17709,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1233</v>
       </c>
@@ -17742,7 +17738,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1237</v>
       </c>
@@ -17768,7 +17764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1241</v>
       </c>
@@ -17794,7 +17790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1245</v>
       </c>
@@ -17820,7 +17816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1249</v>
       </c>
@@ -17846,7 +17842,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>161</v>
       </c>
@@ -17872,7 +17868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1255</v>
       </c>
@@ -17898,7 +17894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1259</v>
       </c>
@@ -17924,7 +17920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1263</v>
       </c>
@@ -17953,7 +17949,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1267</v>
       </c>
@@ -17982,7 +17978,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>122</v>
       </c>
@@ -18008,7 +18004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1272</v>
       </c>
@@ -18037,7 +18033,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>128</v>
       </c>
@@ -18063,7 +18059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>134</v>
       </c>
@@ -18089,7 +18085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>741</v>
       </c>
@@ -18118,7 +18114,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>647</v>
       </c>
@@ -18144,7 +18140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>715</v>
       </c>
@@ -18170,7 +18166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>798</v>
       </c>
@@ -18196,7 +18192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>829</v>
       </c>
@@ -18222,7 +18218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1281</v>
       </c>
@@ -18248,7 +18244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1285</v>
       </c>
@@ -18274,7 +18270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1287</v>
       </c>
@@ -18300,7 +18296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1289</v>
       </c>
@@ -18329,7 +18325,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1292</v>
       </c>
@@ -18358,7 +18354,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1296</v>
       </c>
@@ -18387,7 +18383,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1300</v>
       </c>
@@ -18416,7 +18412,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1304</v>
       </c>
@@ -18449,7 +18445,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>170</v>
       </c>
@@ -18475,7 +18471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1308</v>
       </c>
@@ -18505,7 +18501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>210</v>
       </c>
@@ -18531,7 +18527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>50</v>
       </c>
@@ -18560,7 +18556,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>54</v>
       </c>
@@ -18589,7 +18585,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>58</v>
       </c>
@@ -18618,7 +18614,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>1311</v>
       </c>
@@ -18647,7 +18643,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>1315</v>
       </c>
@@ -18676,7 +18672,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1319</v>
       </c>
@@ -18705,7 +18701,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1323</v>
       </c>
@@ -18734,7 +18730,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="411" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>1327</v>
       </c>
@@ -18763,7 +18759,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="412" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>1331</v>
       </c>
@@ -18790,7 +18786,7 @@
       </c>
       <c r="I412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>1336</v>
       </c>
@@ -18818,7 +18814,7 @@
       <c r="I413" s="5"/>
       <c r="J413" s="5"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1340</v>
       </c>
@@ -18848,7 +18844,7 @@
       </c>
       <c r="J414" s="5"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1344</v>
       </c>
@@ -18876,7 +18872,7 @@
       <c r="I415" s="5"/>
       <c r="J415" s="5"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1348</v>
       </c>
@@ -18904,7 +18900,7 @@
       <c r="I416" s="5"/>
       <c r="J416" s="5"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1352</v>
       </c>
@@ -18932,7 +18928,7 @@
       <c r="I417" s="5"/>
       <c r="J417" s="5"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>1356</v>
       </c>
@@ -18960,7 +18956,7 @@
       <c r="I418" s="5"/>
       <c r="J418" s="5"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>1360</v>
       </c>
@@ -18990,7 +18986,7 @@
       </c>
       <c r="J419" s="5"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>1364</v>
       </c>
@@ -19018,7 +19014,7 @@
       <c r="I420" s="5"/>
       <c r="J420" s="5"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>1065</v>
       </c>
@@ -19048,7 +19044,7 @@
       </c>
       <c r="J421" s="5"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>1371</v>
       </c>
@@ -19076,7 +19072,7 @@
       <c r="I422" s="5"/>
       <c r="J422" s="5"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1373</v>
       </c>
@@ -19104,7 +19100,7 @@
       <c r="I423" s="5"/>
       <c r="J423" s="5"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1377</v>
       </c>
@@ -19132,7 +19128,7 @@
       <c r="I424" s="5"/>
       <c r="J424" s="5"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1381</v>
       </c>
@@ -19162,7 +19158,7 @@
       </c>
       <c r="J425" s="5"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1385</v>
       </c>
@@ -19190,7 +19186,7 @@
       <c r="I426" s="5"/>
       <c r="J426" s="5"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1389</v>
       </c>
@@ -19220,7 +19216,7 @@
       </c>
       <c r="J427" s="5"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1105</v>
       </c>
@@ -19250,7 +19246,7 @@
       </c>
       <c r="J428" s="5"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1395</v>
       </c>
@@ -19278,7 +19274,7 @@
       <c r="I429" s="5"/>
       <c r="J429" s="5"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1399</v>
       </c>
@@ -19306,7 +19302,7 @@
       <c r="I430" s="5"/>
       <c r="J430" s="5"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1403</v>
       </c>
@@ -19334,7 +19330,7 @@
       <c r="I431" s="5"/>
       <c r="J431" s="5"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1407</v>
       </c>
@@ -19362,7 +19358,7 @@
       <c r="I432" s="5"/>
       <c r="J432" s="5"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>167</v>
       </c>
@@ -19390,7 +19386,7 @@
       <c r="I433" s="5"/>
       <c r="J433" s="5"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1413</v>
       </c>
@@ -19418,7 +19414,7 @@
       <c r="I434" s="5"/>
       <c r="J434" s="5"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1417</v>
       </c>
@@ -19446,7 +19442,7 @@
       <c r="I435" s="5"/>
       <c r="J435" s="5"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1081</v>
       </c>
@@ -19474,7 +19470,7 @@
       <c r="I436" s="5"/>
       <c r="J436" s="5"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1424</v>
       </c>
@@ -19504,7 +19500,7 @@
       </c>
       <c r="J437" s="5"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1428</v>
       </c>
@@ -19532,7 +19528,7 @@
       <c r="I438" s="5"/>
       <c r="J438" s="5"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1432</v>
       </c>
@@ -19562,7 +19558,7 @@
       </c>
       <c r="J439" s="5"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1436</v>
       </c>
@@ -19592,7 +19588,7 @@
       </c>
       <c r="J440" s="5"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1440</v>
       </c>
@@ -19620,7 +19616,7 @@
       <c r="I441" s="5"/>
       <c r="J441" s="5"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1444</v>
       </c>
@@ -19648,7 +19644,7 @@
       <c r="I442" s="5"/>
       <c r="J442" s="5"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1448</v>
       </c>
@@ -19676,7 +19672,7 @@
       <c r="I443" s="5"/>
       <c r="J443" s="5"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1452</v>
       </c>
@@ -19704,7 +19700,7 @@
       <c r="I444" s="5"/>
       <c r="J444" s="5"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1456</v>
       </c>
@@ -19732,7 +19728,7 @@
       <c r="I445" s="5"/>
       <c r="J445" s="5"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1460</v>
       </c>
@@ -19760,7 +19756,7 @@
       <c r="I446" s="5"/>
       <c r="J446" s="5"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1464</v>
       </c>
@@ -19788,7 +19784,7 @@
       <c r="I447" s="5"/>
       <c r="J447" s="5"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1468</v>
       </c>
@@ -19816,7 +19812,7 @@
       <c r="I448" s="5"/>
       <c r="J448" s="5"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1472</v>
       </c>
@@ -19844,7 +19840,7 @@
       <c r="I449" s="5"/>
       <c r="J449" s="5"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1476</v>
       </c>
@@ -19872,7 +19868,7 @@
       <c r="I450" s="5"/>
       <c r="J450" s="5"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1480</v>
       </c>
@@ -19900,7 +19896,7 @@
       <c r="I451" s="5"/>
       <c r="J451" s="5"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1484</v>
       </c>
@@ -19928,7 +19924,7 @@
       <c r="I452" s="5"/>
       <c r="J452" s="5"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1488</v>
       </c>
@@ -19956,7 +19952,7 @@
       <c r="I453" s="5"/>
       <c r="J453" s="5"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1492</v>
       </c>
@@ -19984,7 +19980,7 @@
       <c r="I454" s="5"/>
       <c r="J454" s="5"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1496</v>
       </c>
@@ -20012,7 +20008,7 @@
       <c r="I455" s="5"/>
       <c r="J455" s="5"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1500</v>
       </c>
@@ -20040,7 +20036,7 @@
       <c r="I456" s="5"/>
       <c r="J456" s="5"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1504</v>
       </c>
@@ -20068,7 +20064,7 @@
       <c r="I457" s="5"/>
       <c r="J457" s="5"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1508</v>
       </c>
@@ -20096,7 +20092,7 @@
       <c r="I458" s="5"/>
       <c r="J458" s="5"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1511</v>
       </c>
@@ -20126,7 +20122,7 @@
       </c>
       <c r="J459" s="5"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1515</v>
       </c>
@@ -20154,7 +20150,7 @@
       <c r="I460" s="5"/>
       <c r="J460" s="5"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1519</v>
       </c>
@@ -20182,7 +20178,7 @@
       <c r="I461" s="5"/>
       <c r="J461" s="5"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1523</v>
       </c>
@@ -20210,7 +20206,7 @@
       <c r="I462" s="5"/>
       <c r="J462" s="5"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>134</v>
       </c>
@@ -20238,7 +20234,7 @@
       <c r="I463" s="5"/>
       <c r="J463" s="5"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>741</v>
       </c>
@@ -20268,7 +20264,7 @@
       </c>
       <c r="J464" s="5"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>647</v>
       </c>
@@ -20296,7 +20292,7 @@
       <c r="I465" s="5"/>
       <c r="J465" s="5"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>715</v>
       </c>
@@ -20324,7 +20320,7 @@
       <c r="I466" s="5"/>
       <c r="J466" s="5"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>798</v>
       </c>
@@ -20352,7 +20348,7 @@
       <c r="I467" s="5"/>
       <c r="J467" s="5"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>829</v>
       </c>
@@ -20380,7 +20376,7 @@
       <c r="I468" s="5"/>
       <c r="J468" s="5"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1281</v>
       </c>
@@ -20410,7 +20406,7 @@
       </c>
       <c r="J469" s="5"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1285</v>
       </c>
@@ -20438,7 +20434,7 @@
       <c r="I470" s="5"/>
       <c r="J470" s="5"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1287</v>
       </c>
@@ -20466,7 +20462,7 @@
       <c r="I471" s="5"/>
       <c r="J471" s="5"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1289</v>
       </c>
@@ -20496,7 +20492,7 @@
       </c>
       <c r="J472" s="5"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1292</v>
       </c>
@@ -20526,7 +20522,7 @@
       </c>
       <c r="J473" s="5"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1296</v>
       </c>
@@ -20556,7 +20552,7 @@
       </c>
       <c r="J474" s="5"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -20586,7 +20582,7 @@
       </c>
       <c r="J475" s="5"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>10</v>
       </c>
@@ -20616,7 +20612,7 @@
       </c>
       <c r="J476" s="5"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>14</v>
       </c>
@@ -20646,7 +20642,7 @@
       </c>
       <c r="J477" s="5"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>18</v>
       </c>
@@ -20676,7 +20672,7 @@
       </c>
       <c r="J478" s="5"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>22</v>
       </c>
@@ -20706,7 +20702,7 @@
       </c>
       <c r="J479" s="5"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>26</v>
       </c>
@@ -20736,7 +20732,7 @@
       </c>
       <c r="J480" s="5"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>30</v>
       </c>
@@ -20766,7 +20762,7 @@
       </c>
       <c r="J481" s="5"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>34</v>
       </c>
@@ -20796,7 +20792,7 @@
       </c>
       <c r="J482" s="5"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>38</v>
       </c>
@@ -20826,7 +20822,7 @@
       </c>
       <c r="J483" s="5"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>42</v>
       </c>
@@ -20856,7 +20852,7 @@
       </c>
       <c r="J484" s="5"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>46</v>
       </c>
@@ -20886,7 +20882,7 @@
       </c>
       <c r="J485" s="5"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>175</v>
       </c>
@@ -20916,7 +20912,7 @@
       </c>
       <c r="J486" s="5"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>54</v>
       </c>
@@ -20946,7 +20942,7 @@
       </c>
       <c r="J487" s="5"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>58</v>
       </c>
@@ -20976,7 +20972,7 @@
       </c>
       <c r="J488" s="5"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1311</v>
       </c>
@@ -21006,7 +21002,7 @@
       </c>
       <c r="J489" s="5"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1315</v>
       </c>
@@ -21036,7 +21032,7 @@
       </c>
       <c r="J490" s="5"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1319</v>
       </c>
@@ -21066,7 +21062,7 @@
       </c>
       <c r="J491" s="5"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1323</v>
       </c>
@@ -21096,7 +21092,7 @@
       </c>
       <c r="J492" s="5"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1327</v>
       </c>
@@ -21126,7 +21122,7 @@
       </c>
       <c r="J493" s="5"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1527</v>
       </c>
@@ -21156,7 +21152,7 @@
       </c>
       <c r="J494" s="5"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1531</v>
       </c>
@@ -21186,7 +21182,7 @@
       </c>
       <c r="J495" s="5"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
         <v>523</v>
       </c>
@@ -21213,7 +21209,7 @@
       </c>
       <c r="I496" s="3"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>611</v>
       </c>
@@ -21239,7 +21235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>723</v>
       </c>
@@ -21268,7 +21264,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1545</v>
       </c>
@@ -21294,7 +21290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1549</v>
       </c>
@@ -21320,7 +21316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1553</v>
       </c>
@@ -21346,7 +21342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1557</v>
       </c>
@@ -21372,7 +21368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1561</v>
       </c>
@@ -21401,7 +21397,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1043</v>
       </c>
@@ -21427,7 +21423,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1568</v>
       </c>
@@ -21453,7 +21449,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1572</v>
       </c>
@@ -21479,7 +21475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1576</v>
       </c>
@@ -21505,7 +21501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1580</v>
       </c>
@@ -21531,7 +21527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1582</v>
       </c>
@@ -21557,7 +21553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1586</v>
       </c>
@@ -21583,7 +21579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1590</v>
       </c>
@@ -21609,7 +21605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1592</v>
       </c>
@@ -21635,7 +21631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1596</v>
       </c>
@@ -21661,7 +21657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1598</v>
       </c>
@@ -21687,7 +21683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1602</v>
       </c>
@@ -21713,7 +21709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1606</v>
       </c>
@@ -21739,7 +21735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1610</v>
       </c>
@@ -21765,7 +21761,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1614</v>
       </c>
@@ -21791,7 +21787,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1618</v>
       </c>
@@ -21817,7 +21813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1622</v>
       </c>
@@ -21843,7 +21839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1626</v>
       </c>
@@ -21872,7 +21868,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1630</v>
       </c>
@@ -21898,7 +21894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1634</v>
       </c>
@@ -21924,7 +21920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1638</v>
       </c>
@@ -21950,7 +21946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1642</v>
       </c>
@@ -21976,7 +21972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1646</v>
       </c>
@@ -22005,7 +22001,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1650</v>
       </c>
@@ -22031,7 +22027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1654</v>
       </c>
@@ -22060,7 +22056,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1658</v>
       </c>
@@ -22089,7 +22085,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1662</v>
       </c>
@@ -22115,7 +22111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1666</v>
       </c>
@@ -22144,7 +22140,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1670</v>
       </c>
@@ -22170,7 +22166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1674</v>
       </c>
@@ -22196,7 +22192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1678</v>
       </c>
@@ -22222,7 +22218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1682</v>
       </c>
@@ -22248,7 +22244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1684</v>
       </c>
@@ -22274,7 +22270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1688</v>
       </c>
@@ -22300,7 +22296,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1692</v>
       </c>
@@ -22329,7 +22325,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1696</v>
       </c>
@@ -22355,7 +22351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1700</v>
       </c>
@@ -22381,7 +22377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1704</v>
       </c>
@@ -22407,7 +22403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1708</v>
       </c>
@@ -22433,7 +22429,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1712</v>
       </c>
@@ -22459,7 +22455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1716</v>
       </c>
@@ -22485,7 +22481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1720</v>
       </c>
@@ -22511,7 +22507,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1724</v>
       </c>
@@ -22540,7 +22536,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1726</v>
       </c>
@@ -22566,7 +22562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1730</v>
       </c>
@@ -22595,7 +22591,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1734</v>
       </c>
@@ -22624,7 +22620,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1738</v>
       </c>
@@ -22653,7 +22649,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1742</v>
       </c>
@@ -22679,7 +22675,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1746</v>
       </c>
@@ -22705,7 +22701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1750</v>
       </c>
@@ -22731,7 +22727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1754</v>
       </c>
@@ -22760,7 +22756,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1308</v>
       </c>
@@ -22786,7 +22782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1761</v>
       </c>
@@ -22812,7 +22808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1765</v>
       </c>
@@ -22838,7 +22834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1769</v>
       </c>
@@ -22864,7 +22860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1773</v>
       </c>
@@ -22890,7 +22886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1777</v>
       </c>
@@ -22916,7 +22912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1781</v>
       </c>
@@ -22942,7 +22938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1785</v>
       </c>
@@ -22968,7 +22964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1789</v>
       </c>
@@ -22994,7 +22990,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1793</v>
       </c>
@@ -23020,7 +23016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>5</v>
       </c>
@@ -23049,7 +23045,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>10</v>
       </c>
@@ -23078,7 +23074,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>14</v>
       </c>
@@ -23107,7 +23103,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>18</v>
       </c>
@@ -23136,7 +23132,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>22</v>
       </c>
@@ -23165,7 +23161,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>26</v>
       </c>
@@ -23194,7 +23190,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>30</v>
       </c>
@@ -23223,7 +23219,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>34</v>
       </c>
@@ -23252,7 +23248,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>38</v>
       </c>
@@ -23281,7 +23277,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>42</v>
       </c>
@@ -23310,7 +23306,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>46</v>
       </c>
@@ -23339,7 +23335,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>175</v>
       </c>
@@ -23368,7 +23364,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>54</v>
       </c>
@@ -23397,7 +23393,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>58</v>
       </c>
@@ -23426,7 +23422,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1311</v>
       </c>
@@ -23455,7 +23451,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1315</v>
       </c>
@@ -23484,7 +23480,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1319</v>
       </c>
@@ -23513,7 +23509,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1323</v>
       </c>
@@ -23542,7 +23538,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1327</v>
       </c>
@@ -23571,7 +23567,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1527</v>
       </c>
@@ -23600,7 +23596,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1531</v>
       </c>
@@ -23629,7 +23625,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" s="6" t="s">
         <v>1830</v>
       </c>
@@ -23658,7 +23654,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" s="17" t="s">
         <v>1930</v>
       </c>
@@ -23687,7 +23683,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" s="17" t="s">
         <v>1931</v>
       </c>
@@ -23716,7 +23712,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" s="17" t="s">
         <v>1840</v>
       </c>
@@ -23745,7 +23741,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" s="17" t="s">
         <v>1932</v>
       </c>
@@ -23774,7 +23770,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" s="17" t="s">
         <v>1804</v>
       </c>
@@ -23803,7 +23799,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" s="17" t="s">
         <v>1819</v>
       </c>
@@ -23832,7 +23828,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" s="17" t="s">
         <v>1939</v>
       </c>
@@ -23861,7 +23857,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" s="17" t="s">
         <v>1798</v>
       </c>
@@ -23890,7 +23886,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" s="17" t="s">
         <v>1940</v>
       </c>
@@ -23919,7 +23915,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" s="20" t="s">
         <v>1941</v>
       </c>
@@ -23948,7 +23944,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" s="17" t="s">
         <v>1933</v>
       </c>
@@ -23977,7 +23973,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" s="17" t="s">
         <v>1934</v>
       </c>
@@ -24006,7 +24002,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" s="17" t="s">
         <v>1935</v>
       </c>
@@ -24035,7 +24031,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" s="17" t="s">
         <v>1936</v>
       </c>
@@ -24064,7 +24060,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" s="17" t="s">
         <v>1937</v>
       </c>
@@ -24093,7 +24089,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" s="17" t="s">
         <v>1938</v>
       </c>
@@ -24122,7 +24118,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" s="17" t="s">
         <v>1801</v>
       </c>
@@ -24151,7 +24147,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" s="17" t="s">
         <v>1942</v>
       </c>
@@ -24180,7 +24176,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" s="17" t="s">
         <v>1943</v>
       </c>
@@ -24209,7 +24205,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" s="17" t="s">
         <v>1944</v>
       </c>
@@ -24238,7 +24234,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" s="17" t="s">
         <v>1945</v>
       </c>
@@ -24267,7 +24263,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" s="17" t="s">
         <v>798</v>
       </c>
@@ -24296,7 +24292,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" s="17" t="s">
         <v>1946</v>
       </c>
@@ -24325,7 +24321,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" s="17" t="s">
         <v>1947</v>
       </c>
@@ -24354,7 +24350,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" s="17" t="s">
         <v>1948</v>
       </c>
@@ -24383,7 +24379,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" s="17" t="s">
         <v>1949</v>
       </c>
@@ -24412,7 +24408,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" s="17" t="s">
         <v>1833</v>
       </c>
@@ -24441,7 +24437,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" s="17" t="s">
         <v>1848</v>
       </c>
@@ -24470,7 +24466,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" s="17" t="s">
         <v>1839</v>
       </c>
@@ -24499,7 +24495,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" s="17" t="s">
         <v>1953</v>
       </c>
@@ -24528,7 +24524,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" s="17" t="s">
         <v>1954</v>
       </c>
@@ -24557,7 +24553,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" s="17" t="s">
         <v>1955</v>
       </c>
@@ -24586,7 +24582,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" s="17" t="s">
         <v>1956</v>
       </c>
@@ -24615,7 +24611,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" s="17" t="s">
         <v>1957</v>
       </c>
@@ -24644,7 +24640,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" s="17" t="s">
         <v>1958</v>
       </c>
@@ -24673,7 +24669,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" s="17" t="s">
         <v>1832</v>
       </c>
@@ -24702,7 +24698,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" s="17" t="s">
         <v>1950</v>
       </c>
@@ -24731,7 +24727,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" s="17" t="s">
         <v>1951</v>
       </c>
@@ -24760,7 +24756,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" s="17" t="s">
         <v>1952</v>
       </c>
@@ -24789,7 +24785,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" s="17" t="s">
         <v>739</v>
       </c>
@@ -24818,7 +24814,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" s="17" t="s">
         <v>1821</v>
       </c>
@@ -24847,7 +24843,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" s="17" t="s">
         <v>1841</v>
       </c>
@@ -24876,7 +24872,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" s="17" t="s">
         <v>1824</v>
       </c>
@@ -24905,7 +24901,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" s="17" t="s">
         <v>1827</v>
       </c>
@@ -24934,7 +24930,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" s="17" t="s">
         <v>1959</v>
       </c>
@@ -24963,7 +24959,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" s="17" t="s">
         <v>1960</v>
       </c>
@@ -24992,7 +24988,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" s="17" t="s">
         <v>1287</v>
       </c>
@@ -25021,7 +25017,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" s="17" t="s">
         <v>1837</v>
       </c>
@@ -25050,7 +25046,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" s="17" t="s">
         <v>1812</v>
       </c>
@@ -25079,7 +25075,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" s="17" t="s">
         <v>1845</v>
       </c>
@@ -25108,7 +25104,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" s="17" t="s">
         <v>1797</v>
       </c>
@@ -25137,7 +25133,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" s="17" t="s">
         <v>1961</v>
       </c>
@@ -25166,7 +25162,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" s="17" t="s">
         <v>1971</v>
       </c>
@@ -25189,7 +25185,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" s="17" t="s">
         <v>1970</v>
       </c>
@@ -25212,7 +25208,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" s="17" t="s">
         <v>1966</v>
       </c>
@@ -25235,7 +25231,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" s="17" t="s">
         <v>1969</v>
       </c>
@@ -25258,7 +25254,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" s="17" t="s">
         <v>1974</v>
       </c>
@@ -25281,7 +25277,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" s="17" t="s">
         <v>1978</v>
       </c>
@@ -25304,7 +25300,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" s="17" t="s">
         <v>1981</v>
       </c>

--- a/metadata/C3H10_10X_Metadata.xlsx
+++ b/metadata/C3H10_10X_Metadata.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\updeplanas2.epfl.ch\DeplanckeNAS2\TF-seq\Wangjie\TF-seq_GitHub\TF-seq\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\projects\TF-seq\Wangjie\TF-seq_GitHub\TF-seq\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D53707-E8BC-4CB8-8AAB-43DF80E2A947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6356857-F308-4140-BB3F-CB906F2E8688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1305" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3H10_10X_Metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4185" uniqueCount="2004">
   <si>
     <t>TF_name</t>
   </si>
@@ -6747,6 +6758,45 @@
   </si>
   <si>
     <t>Renamed Tada2a</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>exp14</t>
+  </si>
+  <si>
+    <t>Plate0-B1</t>
+  </si>
+  <si>
+    <t>Plate0-C9</t>
+  </si>
+  <si>
+    <t>Plate1-E12</t>
+  </si>
+  <si>
+    <t>Plate1-F10</t>
+  </si>
+  <si>
+    <t>Plate1-F6</t>
+  </si>
+  <si>
+    <t>Plate1-F8</t>
+  </si>
+  <si>
+    <t>Plate6-B7</t>
+  </si>
+  <si>
+    <t>Plate6-E12</t>
+  </si>
+  <si>
+    <t>Zfp24</t>
+  </si>
+  <si>
+    <t>Plate6-C10</t>
+  </si>
+  <si>
+    <t>Plate6-F12</t>
   </si>
 </sst>
 </file>
@@ -7247,7 +7297,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
@@ -7269,6 +7319,19 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="35" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7625,31 +7688,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L645"/>
+  <dimension ref="A1:J661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="G351" sqref="G351"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P558" sqref="P558"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -7674,11 +7737,11 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7703,11 +7766,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -7732,11 +7795,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -7761,11 +7824,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
@@ -7790,11 +7853,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
@@ -7819,11 +7882,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
@@ -7848,11 +7911,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
@@ -7877,11 +7940,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
@@ -7906,11 +7969,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
@@ -7934,20 +7997,12 @@
       <c r="I10" s="11" t="s">
         <v>1987</v>
       </c>
-      <c r="K10">
-        <f>SUM(G9:G12)</f>
-        <v>261</v>
-      </c>
-      <c r="L10">
-        <f>SUM(H9:H12)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
@@ -7972,11 +8027,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="s">
@@ -8001,11 +8056,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -8030,11 +8085,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C14" t="s">
@@ -8059,11 +8114,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
@@ -8088,11 +8143,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="23">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -8114,11 +8169,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="23">
         <v>2</v>
       </c>
       <c r="C17" t="s">
@@ -8140,11 +8195,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="23">
         <v>5</v>
       </c>
       <c r="C18" t="s">
@@ -8166,11 +8221,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="23">
         <v>6</v>
       </c>
       <c r="C19" t="s">
@@ -8192,11 +8247,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="23">
         <v>7</v>
       </c>
       <c r="C20" t="s">
@@ -8218,11 +8273,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="23">
         <v>8</v>
       </c>
       <c r="C21" t="s">
@@ -8244,11 +8299,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="23">
         <v>12</v>
       </c>
       <c r="C22" t="s">
@@ -8270,11 +8325,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="23">
         <v>13</v>
       </c>
       <c r="C23" t="s">
@@ -8296,11 +8351,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="23">
         <v>14</v>
       </c>
       <c r="C24" t="s">
@@ -8322,11 +8377,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="23">
         <v>15</v>
       </c>
       <c r="C25" t="s">
@@ -8348,11 +8403,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="23">
         <v>16</v>
       </c>
       <c r="C26" t="s">
@@ -8374,11 +8429,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="23">
         <v>17</v>
       </c>
       <c r="C27" t="s">
@@ -8400,11 +8455,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="23">
         <v>18</v>
       </c>
       <c r="C28" t="s">
@@ -8426,11 +8481,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>101</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="23">
         <v>19</v>
       </c>
       <c r="C29" t="s">
@@ -8452,11 +8507,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>104</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="23">
         <v>20</v>
       </c>
       <c r="C30" t="s">
@@ -8478,11 +8533,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="23">
         <v>21</v>
       </c>
       <c r="C31" t="s">
@@ -8504,11 +8559,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="23">
         <v>22</v>
       </c>
       <c r="C32" t="s">
@@ -8530,11 +8585,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="23">
         <v>23</v>
       </c>
       <c r="C33" t="s">
@@ -8556,11 +8611,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="23">
         <v>24</v>
       </c>
       <c r="C34" t="s">
@@ -8582,11 +8637,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="23">
         <v>25</v>
       </c>
       <c r="C35" t="s">
@@ -8608,11 +8663,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>122</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="23">
         <v>26</v>
       </c>
       <c r="C36" t="s">
@@ -8634,11 +8689,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>125</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="23">
         <v>27</v>
       </c>
       <c r="C37" t="s">
@@ -8660,11 +8715,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="23">
         <v>30</v>
       </c>
       <c r="C38" t="s">
@@ -8686,11 +8741,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="23">
         <v>31</v>
       </c>
       <c r="C39" t="s">
@@ -8712,11 +8767,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>134</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="23">
         <v>33</v>
       </c>
       <c r="C40" t="s">
@@ -8738,11 +8793,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="23">
         <v>34</v>
       </c>
       <c r="C41" t="s">
@@ -8764,11 +8819,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="23">
         <v>35</v>
       </c>
       <c r="C42" t="s">
@@ -8790,11 +8845,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="23">
         <v>36</v>
       </c>
       <c r="C43" t="s">
@@ -8819,11 +8874,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>146</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="23">
         <v>38</v>
       </c>
       <c r="C44" t="s">
@@ -8845,11 +8900,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>149</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="23">
         <v>39</v>
       </c>
       <c r="C45" t="s">
@@ -8871,11 +8926,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="23">
         <v>41</v>
       </c>
       <c r="C46" t="s">
@@ -8897,11 +8952,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="23">
         <v>42</v>
       </c>
       <c r="C47" t="s">
@@ -8923,11 +8978,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>158</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="23">
         <v>44</v>
       </c>
       <c r="C48" t="s">
@@ -8949,11 +9004,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>161</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="23">
         <v>45</v>
       </c>
       <c r="C49" t="s">
@@ -8975,11 +9030,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>164</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="23">
         <v>50</v>
       </c>
       <c r="C50" t="s">
@@ -9001,11 +9056,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>167</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="23">
         <v>52</v>
       </c>
       <c r="C51" t="s">
@@ -9027,11 +9082,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>170</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C52" t="s">
@@ -9053,11 +9108,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -9082,11 +9137,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -9111,11 +9166,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
@@ -9140,11 +9195,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="s">
@@ -9169,11 +9224,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C57" t="s">
@@ -9198,11 +9253,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C58" t="s">
@@ -9227,11 +9282,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C59" t="s">
@@ -9256,11 +9311,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C60" t="s">
@@ -9285,11 +9340,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C61" t="s">
@@ -9314,11 +9369,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C62" t="s">
@@ -9343,11 +9398,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>46</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C63" t="s">
@@ -9372,11 +9427,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>175</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C64" t="s">
@@ -9401,11 +9456,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C65" t="s">
@@ -9430,11 +9485,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>54</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C66" t="s">
@@ -9459,11 +9514,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C67" t="s">
@@ -9488,11 +9543,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>179</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="23" t="s">
         <v>180</v>
       </c>
       <c r="C68" t="s">
@@ -9514,11 +9569,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>183</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="23" t="s">
         <v>184</v>
       </c>
       <c r="C69" t="s">
@@ -9543,11 +9598,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="23" t="s">
         <v>187</v>
       </c>
       <c r="C70" t="s">
@@ -9569,11 +9624,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>190</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="23" t="s">
         <v>191</v>
       </c>
       <c r="C71" t="s">
@@ -9595,11 +9650,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>194</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="23" t="s">
         <v>195</v>
       </c>
       <c r="C72" t="s">
@@ -9621,11 +9676,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>198</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C73" t="s">
@@ -9647,11 +9702,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>202</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="23" t="s">
         <v>203</v>
       </c>
       <c r="C74" t="s">
@@ -9673,11 +9728,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>206</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C75" t="s">
@@ -9702,11 +9757,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>210</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="23" t="s">
         <v>211</v>
       </c>
       <c r="C76" t="s">
@@ -9728,11 +9783,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>214</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="23" t="s">
         <v>215</v>
       </c>
       <c r="C77" t="s">
@@ -9754,11 +9809,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>218</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="23" t="s">
         <v>219</v>
       </c>
       <c r="C78" t="s">
@@ -9780,11 +9835,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>222</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="23" t="s">
         <v>223</v>
       </c>
       <c r="C79" t="s">
@@ -9809,11 +9864,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>226</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="23" t="s">
         <v>227</v>
       </c>
       <c r="C80" t="s">
@@ -9838,11 +9893,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>230</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="23" t="s">
         <v>231</v>
       </c>
       <c r="C81" t="s">
@@ -9867,11 +9922,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>234</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="23" t="s">
         <v>235</v>
       </c>
       <c r="C82" t="s">
@@ -9893,11 +9948,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>238</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="23" t="s">
         <v>239</v>
       </c>
       <c r="C83" t="s">
@@ -9919,11 +9974,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>242</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="23" t="s">
         <v>243</v>
       </c>
       <c r="C84" t="s">
@@ -9945,11 +10000,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>246</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="23" t="s">
         <v>247</v>
       </c>
       <c r="C85" t="s">
@@ -9971,11 +10026,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>250</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="23" t="s">
         <v>251</v>
       </c>
       <c r="C86" t="s">
@@ -9997,11 +10052,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>254</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="23" t="s">
         <v>255</v>
       </c>
       <c r="C87" t="s">
@@ -10023,11 +10078,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>258</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="23" t="s">
         <v>259</v>
       </c>
       <c r="C88" t="s">
@@ -10052,11 +10107,11 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>262</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="23" t="s">
         <v>263</v>
       </c>
       <c r="C89" t="s">
@@ -10081,11 +10136,11 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>266</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="23" t="s">
         <v>267</v>
       </c>
       <c r="C90" t="s">
@@ -10110,11 +10165,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>270</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="23" t="s">
         <v>271</v>
       </c>
       <c r="C91" t="s">
@@ -10136,11 +10191,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>274</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="23" t="s">
         <v>275</v>
       </c>
       <c r="C92" t="s">
@@ -10165,11 +10220,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>278</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="23" t="s">
         <v>279</v>
       </c>
       <c r="C93" t="s">
@@ -10191,11 +10246,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>282</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="23" t="s">
         <v>283</v>
       </c>
       <c r="C94" t="s">
@@ -10220,11 +10275,11 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>286</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="23" t="s">
         <v>287</v>
       </c>
       <c r="C95" t="s">
@@ -10249,11 +10304,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>290</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="23" t="s">
         <v>291</v>
       </c>
       <c r="C96" t="s">
@@ -10275,11 +10330,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>294</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="23" t="s">
         <v>295</v>
       </c>
       <c r="C97" t="s">
@@ -10301,11 +10356,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>298</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="23" t="s">
         <v>299</v>
       </c>
       <c r="C98" t="s">
@@ -10330,11 +10385,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>302</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="23" t="s">
         <v>303</v>
       </c>
       <c r="C99" t="s">
@@ -10359,11 +10414,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>306</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="23" t="s">
         <v>307</v>
       </c>
       <c r="C100" t="s">
@@ -10388,11 +10443,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>310</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="23" t="s">
         <v>311</v>
       </c>
       <c r="C101" t="s">
@@ -10414,11 +10469,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>152</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="23" t="s">
         <v>314</v>
       </c>
       <c r="C102" t="s">
@@ -10443,11 +10498,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>317</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="23" t="s">
         <v>318</v>
       </c>
       <c r="C103" t="s">
@@ -10472,11 +10527,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>321</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="23" t="s">
         <v>322</v>
       </c>
       <c r="C104" t="s">
@@ -10498,11 +10553,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>325</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="23" t="s">
         <v>326</v>
       </c>
       <c r="C105" t="s">
@@ -10524,11 +10579,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>86</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="23" t="s">
         <v>329</v>
       </c>
       <c r="C106" t="s">
@@ -10553,11 +10608,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>77</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="23" t="s">
         <v>332</v>
       </c>
       <c r="C107" t="s">
@@ -10579,11 +10634,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>335</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="23" t="s">
         <v>336</v>
       </c>
       <c r="C108" t="s">
@@ -10608,11 +10663,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>339</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="23" t="s">
         <v>340</v>
       </c>
       <c r="C109" t="s">
@@ -10637,11 +10692,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>343</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="23" t="s">
         <v>344</v>
       </c>
       <c r="C110" t="s">
@@ -10666,11 +10721,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>347</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="23" t="s">
         <v>348</v>
       </c>
       <c r="C111" t="s">
@@ -10695,11 +10750,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>351</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="23" t="s">
         <v>352</v>
       </c>
       <c r="C112" t="s">
@@ -10721,11 +10776,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>355</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C113" t="s">
@@ -10747,11 +10802,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>359</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="23" t="s">
         <v>360</v>
       </c>
       <c r="C114" t="s">
@@ -10773,11 +10828,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>363</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="23" t="s">
         <v>364</v>
       </c>
       <c r="C115" t="s">
@@ -10799,11 +10854,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>367</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="23" t="s">
         <v>368</v>
       </c>
       <c r="C116" t="s">
@@ -10828,11 +10883,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>371</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="23" t="s">
         <v>372</v>
       </c>
       <c r="C117" t="s">
@@ -10854,11 +10909,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>375</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="23" t="s">
         <v>376</v>
       </c>
       <c r="C118" t="s">
@@ -10883,11 +10938,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>379</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="23" t="s">
         <v>380</v>
       </c>
       <c r="C119" t="s">
@@ -10909,11 +10964,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>383</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="23" t="s">
         <v>384</v>
       </c>
       <c r="C120" t="s">
@@ -10938,11 +10993,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>387</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="23" t="s">
         <v>388</v>
       </c>
       <c r="C121" t="s">
@@ -10964,11 +11019,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>391</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="23" t="s">
         <v>392</v>
       </c>
       <c r="C122" t="s">
@@ -10993,11 +11048,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>395</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="23" t="s">
         <v>396</v>
       </c>
       <c r="C123" t="s">
@@ -11019,11 +11074,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>62</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="23" t="s">
         <v>399</v>
       </c>
       <c r="C124" t="s">
@@ -11048,11 +11103,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>402</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="23" t="s">
         <v>403</v>
       </c>
       <c r="C125" t="s">
@@ -11077,11 +11132,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>406</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="23" t="s">
         <v>407</v>
       </c>
       <c r="C126" t="s">
@@ -11103,11 +11158,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>410</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="23" t="s">
         <v>411</v>
       </c>
       <c r="C127" t="s">
@@ -11129,11 +11184,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>414</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="23" t="s">
         <v>415</v>
       </c>
       <c r="C128" t="s">
@@ -11155,11 +11210,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>418</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="23" t="s">
         <v>419</v>
       </c>
       <c r="C129" t="s">
@@ -11181,11 +11236,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>422</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="23" t="s">
         <v>423</v>
       </c>
       <c r="C130" t="s">
@@ -11207,11 +11262,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>426</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="23" t="s">
         <v>427</v>
       </c>
       <c r="C131" t="s">
@@ -11233,11 +11288,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>430</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="23" t="s">
         <v>431</v>
       </c>
       <c r="C132" t="s">
@@ -11259,11 +11314,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>434</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="23" t="s">
         <v>435</v>
       </c>
       <c r="C133" t="s">
@@ -11285,11 +11340,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>438</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="23" t="s">
         <v>439</v>
       </c>
       <c r="C134" t="s">
@@ -11314,11 +11369,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>442</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="23" t="s">
         <v>443</v>
       </c>
       <c r="C135" t="s">
@@ -11340,11 +11395,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>446</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="23" t="s">
         <v>447</v>
       </c>
       <c r="C136" t="s">
@@ -11366,11 +11421,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>450</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="23" t="s">
         <v>451</v>
       </c>
       <c r="C137" t="s">
@@ -11395,11 +11450,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>454</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="23" t="s">
         <v>455</v>
       </c>
       <c r="C138" t="s">
@@ -11421,11 +11476,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="22" t="s">
         <v>459</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -11448,11 +11503,11 @@
       </c>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>463</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="23" t="s">
         <v>464</v>
       </c>
       <c r="C140" t="s">
@@ -11474,11 +11529,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>467</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="23" t="s">
         <v>468</v>
       </c>
       <c r="C141" t="s">
@@ -11500,11 +11555,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>471</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="23" t="s">
         <v>472</v>
       </c>
       <c r="C142" t="s">
@@ -11529,11 +11584,11 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>475</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="23" t="s">
         <v>476</v>
       </c>
       <c r="C143" t="s">
@@ -11558,11 +11613,11 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>479</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="23" t="s">
         <v>480</v>
       </c>
       <c r="C144" t="s">
@@ -11587,11 +11642,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>483</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="23" t="s">
         <v>484</v>
       </c>
       <c r="C145" t="s">
@@ -11613,11 +11668,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>487</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="23" t="s">
         <v>488</v>
       </c>
       <c r="C146" t="s">
@@ -11639,11 +11694,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>491</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="23" t="s">
         <v>492</v>
       </c>
       <c r="C147" t="s">
@@ -11665,11 +11720,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>495</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="23" t="s">
         <v>496</v>
       </c>
       <c r="C148" t="s">
@@ -11691,11 +11746,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>499</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="23" t="s">
         <v>500</v>
       </c>
       <c r="C149" t="s">
@@ -11720,11 +11775,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>503</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="23" t="s">
         <v>504</v>
       </c>
       <c r="C150" t="s">
@@ -11746,11 +11801,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>507</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="23" t="s">
         <v>508</v>
       </c>
       <c r="C151" t="s">
@@ -11772,11 +11827,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>511</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="23" t="s">
         <v>512</v>
       </c>
       <c r="C152" t="s">
@@ -11798,11 +11853,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>515</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="23" t="s">
         <v>516</v>
       </c>
       <c r="C153" t="s">
@@ -11824,11 +11879,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>519</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="23" t="s">
         <v>520</v>
       </c>
       <c r="C154" t="s">
@@ -11850,11 +11905,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>523</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="23" t="s">
         <v>524</v>
       </c>
       <c r="C155" t="s">
@@ -11876,11 +11931,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>527</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="23" t="s">
         <v>528</v>
       </c>
       <c r="C156" t="s">
@@ -11902,11 +11957,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>531</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C157" t="s">
@@ -11928,11 +11983,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>535</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="23" t="s">
         <v>536</v>
       </c>
       <c r="C158" t="s">
@@ -11954,11 +12009,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>539</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="23" t="s">
         <v>540</v>
       </c>
       <c r="C159" t="s">
@@ -11980,11 +12035,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>543</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="23" t="s">
         <v>544</v>
       </c>
       <c r="C160" t="s">
@@ -12006,11 +12061,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>547</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="23" t="s">
         <v>548</v>
       </c>
       <c r="C161" t="s">
@@ -12035,11 +12090,11 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>551</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="23" t="s">
         <v>552</v>
       </c>
       <c r="C162" t="s">
@@ -12061,11 +12116,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>555</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="23" t="s">
         <v>556</v>
       </c>
       <c r="C163" t="s">
@@ -12087,11 +12142,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>559</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="23" t="s">
         <v>560</v>
       </c>
       <c r="C164" t="s">
@@ -12113,11 +12168,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>563</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="23" t="s">
         <v>564</v>
       </c>
       <c r="C165" t="s">
@@ -12139,11 +12194,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>567</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="23" t="s">
         <v>568</v>
       </c>
       <c r="C166" t="s">
@@ -12165,11 +12220,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>571</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="23" t="s">
         <v>572</v>
       </c>
       <c r="C167" t="s">
@@ -12191,11 +12246,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>575</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="23" t="s">
         <v>576</v>
       </c>
       <c r="C168" t="s">
@@ -12217,11 +12272,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>579</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="23" t="s">
         <v>580</v>
       </c>
       <c r="C169" t="s">
@@ -12243,11 +12298,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>583</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="23" t="s">
         <v>584</v>
       </c>
       <c r="C170" t="s">
@@ -12269,11 +12324,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>587</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="23" t="s">
         <v>588</v>
       </c>
       <c r="C171" t="s">
@@ -12295,11 +12350,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>591</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="23" t="s">
         <v>592</v>
       </c>
       <c r="C172" t="s">
@@ -12321,11 +12376,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>595</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="23" t="s">
         <v>596</v>
       </c>
       <c r="C173" t="s">
@@ -12347,11 +12402,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>599</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="23" t="s">
         <v>600</v>
       </c>
       <c r="C174" t="s">
@@ -12373,11 +12428,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>603</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="23" t="s">
         <v>604</v>
       </c>
       <c r="C175" t="s">
@@ -12399,11 +12454,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>607</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="23" t="s">
         <v>608</v>
       </c>
       <c r="C176" t="s">
@@ -12425,11 +12480,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>611</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="23" t="s">
         <v>612</v>
       </c>
       <c r="C177" t="s">
@@ -12451,11 +12506,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>615</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="23" t="s">
         <v>616</v>
       </c>
       <c r="C178" t="s">
@@ -12477,11 +12532,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>619</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="23" t="s">
         <v>620</v>
       </c>
       <c r="C179" t="s">
@@ -12503,11 +12558,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>623</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="23" t="s">
         <v>624</v>
       </c>
       <c r="C180" t="s">
@@ -12529,11 +12584,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>627</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="23" t="s">
         <v>628</v>
       </c>
       <c r="C181" t="s">
@@ -12555,11 +12610,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>631</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="23" t="s">
         <v>632</v>
       </c>
       <c r="C182" t="s">
@@ -12581,11 +12636,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>635</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="23" t="s">
         <v>636</v>
       </c>
       <c r="C183" t="s">
@@ -12607,11 +12662,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>639</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="23" t="s">
         <v>640</v>
       </c>
       <c r="C184" t="s">
@@ -12633,11 +12688,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>643</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="23" t="s">
         <v>644</v>
       </c>
       <c r="C185" t="s">
@@ -12659,11 +12714,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>647</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="23" t="s">
         <v>648</v>
       </c>
       <c r="C186" t="s">
@@ -12685,11 +12740,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>651</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="23" t="s">
         <v>652</v>
       </c>
       <c r="C187" t="s">
@@ -12711,11 +12766,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>655</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="23" t="s">
         <v>656</v>
       </c>
       <c r="C188" t="s">
@@ -12737,11 +12792,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>659</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="23" t="s">
         <v>660</v>
       </c>
       <c r="C189" t="s">
@@ -12763,11 +12818,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>663</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="23" t="s">
         <v>664</v>
       </c>
       <c r="C190" t="s">
@@ -12789,11 +12844,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>667</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="23" t="s">
         <v>668</v>
       </c>
       <c r="C191" t="s">
@@ -12815,11 +12870,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>671</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="23" t="s">
         <v>672</v>
       </c>
       <c r="C192" t="s">
@@ -12844,11 +12899,11 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>675</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="23" t="s">
         <v>676</v>
       </c>
       <c r="C193" t="s">
@@ -12870,11 +12925,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>679</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="23" t="s">
         <v>680</v>
       </c>
       <c r="C194" t="s">
@@ -12896,11 +12951,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>683</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="23" t="s">
         <v>684</v>
       </c>
       <c r="C195" t="s">
@@ -12922,11 +12977,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>687</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="23" t="s">
         <v>688</v>
       </c>
       <c r="C196" t="s">
@@ -12948,11 +13003,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>691</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="23" t="s">
         <v>692</v>
       </c>
       <c r="C197" t="s">
@@ -12977,11 +13032,11 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>695</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="23" t="s">
         <v>696</v>
       </c>
       <c r="C198" t="s">
@@ -13003,11 +13058,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>699</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="23" t="s">
         <v>700</v>
       </c>
       <c r="C199" t="s">
@@ -13029,11 +13084,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>703</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="23" t="s">
         <v>704</v>
       </c>
       <c r="C200" t="s">
@@ -13055,11 +13110,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>707</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="23" t="s">
         <v>708</v>
       </c>
       <c r="C201" t="s">
@@ -13081,11 +13136,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>711</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="23" t="s">
         <v>712</v>
       </c>
       <c r="C202" t="s">
@@ -13107,11 +13162,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>715</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="23" t="s">
         <v>716</v>
       </c>
       <c r="C203" t="s">
@@ -13133,11 +13188,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>719</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="23" t="s">
         <v>720</v>
       </c>
       <c r="C204" t="s">
@@ -13159,11 +13214,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>723</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="23" t="s">
         <v>724</v>
       </c>
       <c r="C205" t="s">
@@ -13185,11 +13240,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>727</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="23" t="s">
         <v>728</v>
       </c>
       <c r="C206" t="s">
@@ -13211,11 +13266,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>731</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="23" t="s">
         <v>732</v>
       </c>
       <c r="C207" t="s">
@@ -13237,11 +13292,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>735</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="23" t="s">
         <v>736</v>
       </c>
       <c r="C208" t="s">
@@ -13263,11 +13318,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
@@ -13292,11 +13347,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C210" t="s">
@@ -13321,11 +13376,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>14</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C211" t="s">
@@ -13350,11 +13405,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>18</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C212" t="s">
@@ -13379,11 +13434,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>22</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C213" t="s">
@@ -13408,11 +13463,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>26</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C214" t="s">
@@ -13437,11 +13492,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>30</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C215" t="s">
@@ -13466,11 +13521,11 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>34</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C216" t="s">
@@ -13495,11 +13550,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
@@ -13524,11 +13579,11 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>42</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C218" t="s">
@@ -13553,11 +13608,11 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>46</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C219" t="s">
@@ -13582,11 +13637,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>175</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="23" t="s">
         <v>175</v>
       </c>
       <c r="C220" t="s">
@@ -13611,11 +13666,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>50</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C221" t="s">
@@ -13640,11 +13695,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>54</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C222" t="s">
@@ -13669,11 +13724,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>58</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C223" t="s">
@@ -13698,11 +13753,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>170</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="23" t="s">
         <v>739</v>
       </c>
       <c r="C224" t="s">
@@ -13724,11 +13779,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>740</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="23" t="s">
         <v>740</v>
       </c>
       <c r="C225" t="s">
@@ -13753,11 +13808,11 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>128</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C226" t="s">
@@ -13779,11 +13834,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>134</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="23" t="s">
         <v>134</v>
       </c>
       <c r="C227" t="s">
@@ -13805,11 +13860,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="22" t="s">
         <v>742</v>
       </c>
       <c r="C228" s="3" t="s">
@@ -13834,11 +13889,11 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>744</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="23" t="s">
         <v>745</v>
       </c>
       <c r="C229" t="s">
@@ -13860,11 +13915,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>746</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="23" t="s">
         <v>747</v>
       </c>
       <c r="C230" t="s">
@@ -13886,11 +13941,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>748</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="23" t="s">
         <v>749</v>
       </c>
       <c r="C231" t="s">
@@ -13912,11 +13967,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>750</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="23" t="s">
         <v>751</v>
       </c>
       <c r="C232" t="s">
@@ -13938,11 +13993,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>754</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="23" t="s">
         <v>755</v>
       </c>
       <c r="C233" t="s">
@@ -13964,11 +14019,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>758</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="23" t="s">
         <v>759</v>
       </c>
       <c r="C234" t="s">
@@ -13990,11 +14045,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>762</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="23" t="s">
         <v>763</v>
       </c>
       <c r="C235" t="s">
@@ -14016,11 +14071,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>766</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="23" t="s">
         <v>767</v>
       </c>
       <c r="C236" t="s">
@@ -14045,11 +14100,11 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>770</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="23" t="s">
         <v>771</v>
       </c>
       <c r="C237" t="s">
@@ -14071,11 +14126,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>774</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="23" t="s">
         <v>775</v>
       </c>
       <c r="C238" t="s">
@@ -14097,11 +14152,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>778</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="23" t="s">
         <v>779</v>
       </c>
       <c r="C239" t="s">
@@ -14126,11 +14181,11 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>782</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="23" t="s">
         <v>783</v>
       </c>
       <c r="C240" t="s">
@@ -14155,11 +14210,11 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>786</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="23" t="s">
         <v>787</v>
       </c>
       <c r="C241" t="s">
@@ -14181,11 +14236,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>790</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="23" t="s">
         <v>791</v>
       </c>
       <c r="C242" t="s">
@@ -14207,11 +14262,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>794</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="23" t="s">
         <v>795</v>
       </c>
       <c r="C243" t="s">
@@ -14233,11 +14288,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>798</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="23" t="s">
         <v>799</v>
       </c>
       <c r="C244" t="s">
@@ -14259,11 +14314,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>802</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="23" t="s">
         <v>803</v>
       </c>
       <c r="C245" t="s">
@@ -14285,11 +14340,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>806</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="23" t="s">
         <v>807</v>
       </c>
       <c r="C246" t="s">
@@ -14311,11 +14366,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>810</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="23" t="s">
         <v>811</v>
       </c>
       <c r="C247" t="s">
@@ -14337,11 +14392,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>83</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="23" t="s">
         <v>814</v>
       </c>
       <c r="C248" t="s">
@@ -14363,11 +14418,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>817</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="23" t="s">
         <v>818</v>
       </c>
       <c r="C249" t="s">
@@ -14389,11 +14444,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>821</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="23" t="s">
         <v>822</v>
       </c>
       <c r="C250" t="s">
@@ -14415,11 +14470,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>825</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="23" t="s">
         <v>826</v>
       </c>
       <c r="C251" t="s">
@@ -14441,11 +14496,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>829</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="23" t="s">
         <v>830</v>
       </c>
       <c r="C252" t="s">
@@ -14467,11 +14522,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>833</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="23" t="s">
         <v>834</v>
       </c>
       <c r="C253" t="s">
@@ -14496,11 +14551,11 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>837</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="23" t="s">
         <v>838</v>
       </c>
       <c r="C254" t="s">
@@ -14525,11 +14580,11 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>841</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="23" t="s">
         <v>842</v>
       </c>
       <c r="C255" t="s">
@@ -14551,11 +14606,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>845</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="23" t="s">
         <v>846</v>
       </c>
       <c r="C256" t="s">
@@ -14577,11 +14632,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>849</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="23" t="s">
         <v>850</v>
       </c>
       <c r="C257" t="s">
@@ -14603,11 +14658,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>853</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="23" t="s">
         <v>854</v>
       </c>
       <c r="C258" t="s">
@@ -14629,11 +14684,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>857</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="23" t="s">
         <v>858</v>
       </c>
       <c r="C259" t="s">
@@ -14655,11 +14710,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>861</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="23" t="s">
         <v>862</v>
       </c>
       <c r="C260" t="s">
@@ -14681,11 +14736,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>865</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="23" t="s">
         <v>866</v>
       </c>
       <c r="C261" t="s">
@@ -14707,11 +14762,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>869</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="23" t="s">
         <v>870</v>
       </c>
       <c r="C262" t="s">
@@ -14733,11 +14788,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>873</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="23" t="s">
         <v>874</v>
       </c>
       <c r="C263" t="s">
@@ -14759,11 +14814,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>101</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="23" t="s">
         <v>877</v>
       </c>
       <c r="C264" t="s">
@@ -14788,11 +14843,11 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>880</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="23" t="s">
         <v>881</v>
       </c>
       <c r="C265" t="s">
@@ -14814,11 +14869,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>80</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="23" t="s">
         <v>884</v>
       </c>
       <c r="C266" t="s">
@@ -14840,11 +14895,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>887</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="23" t="s">
         <v>888</v>
       </c>
       <c r="C267" t="s">
@@ -14866,11 +14921,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>891</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="23" t="s">
         <v>892</v>
       </c>
       <c r="C268" t="s">
@@ -14892,11 +14947,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>895</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="23" t="s">
         <v>896</v>
       </c>
       <c r="C269" t="s">
@@ -14918,11 +14973,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>899</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="23" t="s">
         <v>900</v>
       </c>
       <c r="C270" t="s">
@@ -14944,11 +14999,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>903</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="23" t="s">
         <v>904</v>
       </c>
       <c r="C271" t="s">
@@ -14970,11 +15025,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>907</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="23" t="s">
         <v>908</v>
       </c>
       <c r="C272" t="s">
@@ -14996,11 +15051,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>911</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="23" t="s">
         <v>912</v>
       </c>
       <c r="C273" t="s">
@@ -15022,11 +15077,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>915</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="23" t="s">
         <v>916</v>
       </c>
       <c r="C274" t="s">
@@ -15048,11 +15103,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>919</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="23" t="s">
         <v>920</v>
       </c>
       <c r="C275" t="s">
@@ -15074,11 +15129,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>923</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="23" t="s">
         <v>924</v>
       </c>
       <c r="C276" t="s">
@@ -15100,11 +15155,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>927</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="23" t="s">
         <v>928</v>
       </c>
       <c r="C277" t="s">
@@ -15126,11 +15181,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>931</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="23" t="s">
         <v>932</v>
       </c>
       <c r="C278" t="s">
@@ -15152,11 +15207,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>935</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="23" t="s">
         <v>936</v>
       </c>
       <c r="C279" t="s">
@@ -15181,11 +15236,11 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>939</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="23" t="s">
         <v>940</v>
       </c>
       <c r="C280" t="s">
@@ -15207,11 +15262,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>943</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="23" t="s">
         <v>944</v>
       </c>
       <c r="C281" t="s">
@@ -15233,11 +15288,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>947</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="23" t="s">
         <v>948</v>
       </c>
       <c r="C282" t="s">
@@ -15259,11 +15314,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>951</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="23" t="s">
         <v>952</v>
       </c>
       <c r="C283" t="s">
@@ -15285,11 +15340,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>955</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="23" t="s">
         <v>956</v>
       </c>
       <c r="C284" t="s">
@@ -15311,11 +15366,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>959</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="23" t="s">
         <v>960</v>
       </c>
       <c r="C285" t="s">
@@ -15337,11 +15392,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>963</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="23" t="s">
         <v>964</v>
       </c>
       <c r="C286" t="s">
@@ -15366,11 +15421,11 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>967</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="23" t="s">
         <v>968</v>
       </c>
       <c r="C287" t="s">
@@ -15392,11 +15447,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>971</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="23" t="s">
         <v>972</v>
       </c>
       <c r="C288" t="s">
@@ -15418,11 +15473,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>975</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="23" t="s">
         <v>976</v>
       </c>
       <c r="C289" t="s">
@@ -15444,11 +15499,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>979</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="23" t="s">
         <v>980</v>
       </c>
       <c r="C290" t="s">
@@ -15470,11 +15525,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>983</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C291" t="s">
@@ -15496,11 +15551,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>986</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="23" t="s">
         <v>987</v>
       </c>
       <c r="C292" t="s">
@@ -15522,11 +15577,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>990</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="23" t="s">
         <v>991</v>
       </c>
       <c r="C293" t="s">
@@ -15548,11 +15603,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>994</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="23" t="s">
         <v>995</v>
       </c>
       <c r="C294" t="s">
@@ -15574,11 +15629,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>998</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="23" t="s">
         <v>999</v>
       </c>
       <c r="C295" t="s">
@@ -15603,11 +15658,11 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1002</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="23" t="s">
         <v>1003</v>
       </c>
       <c r="C296" t="s">
@@ -15629,11 +15684,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1006</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="23" t="s">
         <v>1007</v>
       </c>
       <c r="C297" t="s">
@@ -15655,11 +15710,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1010</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="23" t="s">
         <v>1011</v>
       </c>
       <c r="C298" t="s">
@@ -15681,11 +15736,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1014</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="23" t="s">
         <v>1015</v>
       </c>
       <c r="C299" t="s">
@@ -15707,11 +15762,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1018</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="23" t="s">
         <v>1019</v>
       </c>
       <c r="C300" t="s">
@@ -15733,11 +15788,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1022</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="23" t="s">
         <v>1023</v>
       </c>
       <c r="C301" t="s">
@@ -15759,11 +15814,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1026</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="23" t="s">
         <v>1027</v>
       </c>
       <c r="C302" t="s">
@@ -15785,11 +15840,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1030</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="23" t="s">
         <v>1031</v>
       </c>
       <c r="C303" t="s">
@@ -15811,11 +15866,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C304" t="s">
@@ -15840,11 +15895,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>10</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C305" t="s">
@@ -15869,11 +15924,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>14</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C306" t="s">
@@ -15898,11 +15953,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>18</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C307" t="s">
@@ -15927,11 +15982,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>22</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C308" t="s">
@@ -15956,11 +16011,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>26</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C309" t="s">
@@ -15985,11 +16040,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C310" t="s">
@@ -16014,11 +16069,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>34</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C311" t="s">
@@ -16043,11 +16098,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>38</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C312" t="s">
@@ -16072,11 +16127,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>42</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C313" t="s">
@@ -16101,11 +16156,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>46</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C314" t="s">
@@ -16130,11 +16185,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>175</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="23" t="s">
         <v>175</v>
       </c>
       <c r="C315" t="s">
@@ -16159,11 +16214,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>50</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C316" t="s">
@@ -16188,11 +16243,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>54</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C317" t="s">
@@ -16217,11 +16272,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>58</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C318" t="s">
@@ -16246,11 +16301,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>170</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="23" t="s">
         <v>739</v>
       </c>
       <c r="C319" t="s">
@@ -16272,11 +16327,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>740</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="23" t="s">
         <v>740</v>
       </c>
       <c r="C320" t="s">
@@ -16301,11 +16356,11 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>128</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C321" t="s">
@@ -16327,11 +16382,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>134</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="23" t="s">
         <v>134</v>
       </c>
       <c r="C322" t="s">
@@ -16353,11 +16408,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="22" t="s">
         <v>1035</v>
       </c>
       <c r="C323" s="3" t="s">
@@ -16382,11 +16437,11 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1037</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="23" t="s">
         <v>1038</v>
       </c>
       <c r="C324" t="s">
@@ -16411,11 +16466,11 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1039</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="23" t="s">
         <v>1040</v>
       </c>
       <c r="C325" t="s">
@@ -16437,11 +16492,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1043</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="23" t="s">
         <v>1044</v>
       </c>
       <c r="C326" t="s">
@@ -16463,11 +16518,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1045</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="23" t="s">
         <v>1046</v>
       </c>
       <c r="C327" t="s">
@@ -16489,11 +16544,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1049</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="23" t="s">
         <v>1050</v>
       </c>
       <c r="C328" t="s">
@@ -16515,11 +16570,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1053</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="23" t="s">
         <v>1054</v>
       </c>
       <c r="C329" t="s">
@@ -16541,11 +16596,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1057</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="23" t="s">
         <v>1058</v>
       </c>
       <c r="C330" t="s">
@@ -16567,11 +16622,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1061</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="23" t="s">
         <v>1062</v>
       </c>
       <c r="C331" t="s">
@@ -16593,11 +16648,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1065</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="23" t="s">
         <v>1066</v>
       </c>
       <c r="C332" t="s">
@@ -16622,11 +16677,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1069</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="23" t="s">
         <v>1070</v>
       </c>
       <c r="C333" t="s">
@@ -16648,11 +16703,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1073</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="23" t="s">
         <v>1074</v>
       </c>
       <c r="C334" t="s">
@@ -16674,11 +16729,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1077</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="23" t="s">
         <v>1078</v>
       </c>
       <c r="C335" t="s">
@@ -16700,11 +16755,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1081</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="23" t="s">
         <v>1082</v>
       </c>
       <c r="C336" t="s">
@@ -16726,11 +16781,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1085</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="23" t="s">
         <v>1086</v>
       </c>
       <c r="C337" t="s">
@@ -16755,11 +16810,11 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1089</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="23" t="s">
         <v>1090</v>
       </c>
       <c r="C338" t="s">
@@ -16781,11 +16836,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1093</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="23" t="s">
         <v>1094</v>
       </c>
       <c r="C339" t="s">
@@ -16807,11 +16862,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1097</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="23" t="s">
         <v>1098</v>
       </c>
       <c r="C340" t="s">
@@ -16836,11 +16891,11 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1101</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="23" t="s">
         <v>1102</v>
       </c>
       <c r="C341" t="s">
@@ -16865,11 +16920,11 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1105</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="23" t="s">
         <v>1106</v>
       </c>
       <c r="C342" t="s">
@@ -16894,11 +16949,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1109</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="23" t="s">
         <v>1110</v>
       </c>
       <c r="C343" t="s">
@@ -16923,11 +16978,11 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1113</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="23" t="s">
         <v>1114</v>
       </c>
       <c r="C344" t="s">
@@ -16952,11 +17007,11 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1117</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="23" t="s">
         <v>1118</v>
       </c>
       <c r="C345" t="s">
@@ -16978,11 +17033,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1121</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="23" t="s">
         <v>1122</v>
       </c>
       <c r="C346" t="s">
@@ -17004,11 +17059,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1125</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="23" t="s">
         <v>1126</v>
       </c>
       <c r="C347" t="s">
@@ -17030,11 +17085,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1129</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="23" t="s">
         <v>1130</v>
       </c>
       <c r="C348" t="s">
@@ -17056,11 +17111,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1133</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="23" t="s">
         <v>1134</v>
       </c>
       <c r="C349" t="s">
@@ -17082,11 +17137,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1137</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="23" t="s">
         <v>1138</v>
       </c>
       <c r="C350" t="s">
@@ -17108,11 +17163,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1141</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="23" t="s">
         <v>1142</v>
       </c>
       <c r="C351" t="s">
@@ -17134,11 +17189,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1145</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="23" t="s">
         <v>1146</v>
       </c>
       <c r="C352" t="s">
@@ -17160,11 +17215,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1149</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="23" t="s">
         <v>1150</v>
       </c>
       <c r="C353" t="s">
@@ -17186,11 +17241,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1153</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="23" t="s">
         <v>1154</v>
       </c>
       <c r="C354" t="s">
@@ -17212,11 +17267,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1157</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="23" t="s">
         <v>1158</v>
       </c>
       <c r="C355" t="s">
@@ -17238,11 +17293,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1161</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="23" t="s">
         <v>1162</v>
       </c>
       <c r="C356" t="s">
@@ -17264,11 +17319,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1165</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="23" t="s">
         <v>1166</v>
       </c>
       <c r="C357" t="s">
@@ -17290,11 +17345,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1169</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="23" t="s">
         <v>1170</v>
       </c>
       <c r="C358" t="s">
@@ -17316,11 +17371,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1173</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="23" t="s">
         <v>1174</v>
       </c>
       <c r="C359" t="s">
@@ -17342,11 +17397,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1177</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="23" t="s">
         <v>1178</v>
       </c>
       <c r="C360" t="s">
@@ -17368,11 +17423,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1181</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="23" t="s">
         <v>1182</v>
       </c>
       <c r="C361" t="s">
@@ -17394,11 +17449,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1185</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="23" t="s">
         <v>1186</v>
       </c>
       <c r="C362" t="s">
@@ -17420,11 +17475,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1189</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="23" t="s">
         <v>1190</v>
       </c>
       <c r="C363" t="s">
@@ -17446,11 +17501,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1193</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="23" t="s">
         <v>1194</v>
       </c>
       <c r="C364" t="s">
@@ -17472,11 +17527,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1197</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="23" t="s">
         <v>1198</v>
       </c>
       <c r="C365" t="s">
@@ -17498,11 +17553,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1201</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="23" t="s">
         <v>1202</v>
       </c>
       <c r="C366" t="s">
@@ -17524,11 +17579,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1205</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="23" t="s">
         <v>1206</v>
       </c>
       <c r="C367" t="s">
@@ -17550,11 +17605,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1209</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="23" t="s">
         <v>1210</v>
       </c>
       <c r="C368" t="s">
@@ -17576,11 +17631,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1213</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="23" t="s">
         <v>1214</v>
       </c>
       <c r="C369" t="s">
@@ -17602,11 +17657,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1217</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="23" t="s">
         <v>1218</v>
       </c>
       <c r="C370" t="s">
@@ -17628,11 +17683,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1221</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="23" t="s">
         <v>1222</v>
       </c>
       <c r="C371" t="s">
@@ -17654,11 +17709,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1225</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="23" t="s">
         <v>1226</v>
       </c>
       <c r="C372" t="s">
@@ -17680,11 +17735,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1229</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="23" t="s">
         <v>1230</v>
       </c>
       <c r="C373" t="s">
@@ -17709,11 +17764,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1233</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="23" t="s">
         <v>1234</v>
       </c>
       <c r="C374" t="s">
@@ -17738,11 +17793,11 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1237</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="23" t="s">
         <v>1238</v>
       </c>
       <c r="C375" t="s">
@@ -17764,11 +17819,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1241</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="23" t="s">
         <v>1242</v>
       </c>
       <c r="C376" t="s">
@@ -17790,11 +17845,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1245</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="23" t="s">
         <v>1246</v>
       </c>
       <c r="C377" t="s">
@@ -17816,11 +17871,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1249</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="23" t="s">
         <v>1250</v>
       </c>
       <c r="C378" t="s">
@@ -17842,11 +17897,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>161</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="23" t="s">
         <v>1253</v>
       </c>
       <c r="C379" t="s">
@@ -17868,11 +17923,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1255</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="23" t="s">
         <v>1256</v>
       </c>
       <c r="C380" t="s">
@@ -17894,11 +17949,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1259</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="23" t="s">
         <v>1260</v>
       </c>
       <c r="C381" t="s">
@@ -17920,11 +17975,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1263</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="23" t="s">
         <v>1264</v>
       </c>
       <c r="C382" t="s">
@@ -17949,11 +18004,11 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1267</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="23" t="s">
         <v>1268</v>
       </c>
       <c r="C383" t="s">
@@ -17978,11 +18033,11 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>122</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="23" t="s">
         <v>1271</v>
       </c>
       <c r="C384" t="s">
@@ -18004,11 +18059,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1272</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="23" t="s">
         <v>1273</v>
       </c>
       <c r="C385" t="s">
@@ -18033,11 +18088,11 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>128</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="23" t="s">
         <v>1274</v>
       </c>
       <c r="C386" t="s">
@@ -18059,11 +18114,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>134</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="23" t="s">
         <v>1275</v>
       </c>
       <c r="C387" t="s">
@@ -18085,11 +18140,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>741</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="23" t="s">
         <v>1276</v>
       </c>
       <c r="C388" t="s">
@@ -18114,11 +18169,11 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>647</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="23" t="s">
         <v>1277</v>
       </c>
       <c r="C389" t="s">
@@ -18140,11 +18195,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>715</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="23" t="s">
         <v>1278</v>
       </c>
       <c r="C390" t="s">
@@ -18166,11 +18221,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>798</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="23" t="s">
         <v>1279</v>
       </c>
       <c r="C391" t="s">
@@ -18192,11 +18247,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>829</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="23" t="s">
         <v>1280</v>
       </c>
       <c r="C392" t="s">
@@ -18218,11 +18273,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1281</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="23" t="s">
         <v>1282</v>
       </c>
       <c r="C393" t="s">
@@ -18244,11 +18299,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1285</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="23" t="s">
         <v>1286</v>
       </c>
       <c r="C394" t="s">
@@ -18270,11 +18325,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1287</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="23" t="s">
         <v>1288</v>
       </c>
       <c r="C395" t="s">
@@ -18296,11 +18351,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1289</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="23" t="s">
         <v>1290</v>
       </c>
       <c r="C396" t="s">
@@ -18325,11 +18380,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1292</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="23" t="s">
         <v>1293</v>
       </c>
       <c r="C397" t="s">
@@ -18354,11 +18409,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1296</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="23" t="s">
         <v>1297</v>
       </c>
       <c r="C398" t="s">
@@ -18383,11 +18438,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1300</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="23" t="s">
         <v>1301</v>
       </c>
       <c r="C399" t="s">
@@ -18412,11 +18467,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1304</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="23" t="s">
         <v>1305</v>
       </c>
       <c r="C400" t="s">
@@ -18445,11 +18500,11 @@
         <v>477</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>170</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C401" t="s">
@@ -18471,11 +18526,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1308</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="23" t="s">
         <v>1309</v>
       </c>
       <c r="C402" t="s">
@@ -18501,11 +18556,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>210</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="23" t="s">
         <v>1310</v>
       </c>
       <c r="C403" t="s">
@@ -18527,11 +18582,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>50</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C404" t="s">
@@ -18556,11 +18611,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>54</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C405" t="s">
@@ -18585,11 +18640,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>58</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C406" t="s">
@@ -18614,11 +18669,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1311</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="23" t="s">
         <v>1312</v>
       </c>
       <c r="C407" t="s">
@@ -18643,11 +18698,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1315</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="23" t="s">
         <v>1316</v>
       </c>
       <c r="C408" t="s">
@@ -18672,11 +18727,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1319</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="23" t="s">
         <v>1320</v>
       </c>
       <c r="C409" t="s">
@@ -18701,11 +18756,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1323</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="23" t="s">
         <v>1324</v>
       </c>
       <c r="C410" t="s">
@@ -18730,11 +18785,11 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="411" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="B411" s="24" t="s">
         <v>1328</v>
       </c>
       <c r="C411" s="5" t="s">
@@ -18759,11 +18814,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="412" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="B412" s="3" t="s">
+      <c r="B412" s="22" t="s">
         <v>1332</v>
       </c>
       <c r="C412" s="3" t="s">
@@ -18786,11 +18841,11 @@
       </c>
       <c r="I412" s="3"/>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1336</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="23" t="s">
         <v>1337</v>
       </c>
       <c r="C413" t="s">
@@ -18814,11 +18869,11 @@
       <c r="I413" s="5"/>
       <c r="J413" s="5"/>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1340</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="23" t="s">
         <v>1341</v>
       </c>
       <c r="C414" t="s">
@@ -18844,11 +18899,11 @@
       </c>
       <c r="J414" s="5"/>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1344</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="23" t="s">
         <v>1345</v>
       </c>
       <c r="C415" t="s">
@@ -18872,11 +18927,11 @@
       <c r="I415" s="5"/>
       <c r="J415" s="5"/>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1348</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="23" t="s">
         <v>1349</v>
       </c>
       <c r="C416" t="s">
@@ -18900,11 +18955,11 @@
       <c r="I416" s="5"/>
       <c r="J416" s="5"/>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1352</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="23" t="s">
         <v>1353</v>
       </c>
       <c r="C417" t="s">
@@ -18928,11 +18983,11 @@
       <c r="I417" s="5"/>
       <c r="J417" s="5"/>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1356</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="23" t="s">
         <v>1357</v>
       </c>
       <c r="C418" t="s">
@@ -18956,11 +19011,11 @@
       <c r="I418" s="5"/>
       <c r="J418" s="5"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1360</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="23" t="s">
         <v>1361</v>
       </c>
       <c r="C419" t="s">
@@ -18986,11 +19041,11 @@
       </c>
       <c r="J419" s="5"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1364</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="23" t="s">
         <v>1365</v>
       </c>
       <c r="C420" t="s">
@@ -19014,11 +19069,11 @@
       <c r="I420" s="5"/>
       <c r="J420" s="5"/>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1065</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="23" t="s">
         <v>1368</v>
       </c>
       <c r="C421" t="s">
@@ -19044,11 +19099,11 @@
       </c>
       <c r="J421" s="5"/>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1371</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="23" t="s">
         <v>1372</v>
       </c>
       <c r="C422" t="s">
@@ -19072,11 +19127,11 @@
       <c r="I422" s="5"/>
       <c r="J422" s="5"/>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1373</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="23" t="s">
         <v>1374</v>
       </c>
       <c r="C423" t="s">
@@ -19100,11 +19155,11 @@
       <c r="I423" s="5"/>
       <c r="J423" s="5"/>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1377</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="23" t="s">
         <v>1378</v>
       </c>
       <c r="C424" t="s">
@@ -19128,11 +19183,11 @@
       <c r="I424" s="5"/>
       <c r="J424" s="5"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1381</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="23" t="s">
         <v>1382</v>
       </c>
       <c r="C425" t="s">
@@ -19158,11 +19213,11 @@
       </c>
       <c r="J425" s="5"/>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1385</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="23" t="s">
         <v>1386</v>
       </c>
       <c r="C426" t="s">
@@ -19186,11 +19241,11 @@
       <c r="I426" s="5"/>
       <c r="J426" s="5"/>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1389</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="23" t="s">
         <v>1390</v>
       </c>
       <c r="C427" t="s">
@@ -19216,11 +19271,11 @@
       </c>
       <c r="J427" s="5"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1105</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="23" t="s">
         <v>1393</v>
       </c>
       <c r="C428" t="s">
@@ -19246,11 +19301,11 @@
       </c>
       <c r="J428" s="5"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1395</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="23" t="s">
         <v>1396</v>
       </c>
       <c r="C429" t="s">
@@ -19274,11 +19329,11 @@
       <c r="I429" s="5"/>
       <c r="J429" s="5"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1399</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="23" t="s">
         <v>1400</v>
       </c>
       <c r="C430" t="s">
@@ -19302,11 +19357,11 @@
       <c r="I430" s="5"/>
       <c r="J430" s="5"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1403</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="23" t="s">
         <v>1404</v>
       </c>
       <c r="C431" t="s">
@@ -19330,11 +19385,11 @@
       <c r="I431" s="5"/>
       <c r="J431" s="5"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1407</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="23" t="s">
         <v>1408</v>
       </c>
       <c r="C432" t="s">
@@ -19358,11 +19413,11 @@
       <c r="I432" s="5"/>
       <c r="J432" s="5"/>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>167</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="23" t="s">
         <v>1410</v>
       </c>
       <c r="C433" t="s">
@@ -19386,11 +19441,11 @@
       <c r="I433" s="5"/>
       <c r="J433" s="5"/>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1413</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="23" t="s">
         <v>1414</v>
       </c>
       <c r="C434" t="s">
@@ -19414,11 +19469,11 @@
       <c r="I434" s="5"/>
       <c r="J434" s="5"/>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1417</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="23" t="s">
         <v>1418</v>
       </c>
       <c r="C435" t="s">
@@ -19442,11 +19497,11 @@
       <c r="I435" s="5"/>
       <c r="J435" s="5"/>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1081</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="23" t="s">
         <v>1421</v>
       </c>
       <c r="C436" t="s">
@@ -19470,11 +19525,11 @@
       <c r="I436" s="5"/>
       <c r="J436" s="5"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1424</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="23" t="s">
         <v>1425</v>
       </c>
       <c r="C437" t="s">
@@ -19500,11 +19555,11 @@
       </c>
       <c r="J437" s="5"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1428</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="23" t="s">
         <v>1429</v>
       </c>
       <c r="C438" t="s">
@@ -19528,11 +19583,11 @@
       <c r="I438" s="5"/>
       <c r="J438" s="5"/>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1432</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="23" t="s">
         <v>1433</v>
       </c>
       <c r="C439" t="s">
@@ -19558,11 +19613,11 @@
       </c>
       <c r="J439" s="5"/>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1436</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="23" t="s">
         <v>1437</v>
       </c>
       <c r="C440" t="s">
@@ -19588,11 +19643,11 @@
       </c>
       <c r="J440" s="5"/>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1440</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="23" t="s">
         <v>1441</v>
       </c>
       <c r="C441" t="s">
@@ -19616,11 +19671,11 @@
       <c r="I441" s="5"/>
       <c r="J441" s="5"/>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1444</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="23" t="s">
         <v>1445</v>
       </c>
       <c r="C442" t="s">
@@ -19644,11 +19699,11 @@
       <c r="I442" s="5"/>
       <c r="J442" s="5"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1448</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="23" t="s">
         <v>1449</v>
       </c>
       <c r="C443" t="s">
@@ -19672,11 +19727,11 @@
       <c r="I443" s="5"/>
       <c r="J443" s="5"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1452</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="23" t="s">
         <v>1453</v>
       </c>
       <c r="C444" t="s">
@@ -19700,11 +19755,11 @@
       <c r="I444" s="5"/>
       <c r="J444" s="5"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1456</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="23" t="s">
         <v>1457</v>
       </c>
       <c r="C445" t="s">
@@ -19728,11 +19783,11 @@
       <c r="I445" s="5"/>
       <c r="J445" s="5"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1460</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="23" t="s">
         <v>1461</v>
       </c>
       <c r="C446" t="s">
@@ -19756,11 +19811,11 @@
       <c r="I446" s="5"/>
       <c r="J446" s="5"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1464</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="23" t="s">
         <v>1465</v>
       </c>
       <c r="C447" t="s">
@@ -19784,11 +19839,11 @@
       <c r="I447" s="5"/>
       <c r="J447" s="5"/>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1468</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="23" t="s">
         <v>1469</v>
       </c>
       <c r="C448" t="s">
@@ -19812,11 +19867,11 @@
       <c r="I448" s="5"/>
       <c r="J448" s="5"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1472</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="23" t="s">
         <v>1473</v>
       </c>
       <c r="C449" t="s">
@@ -19840,11 +19895,11 @@
       <c r="I449" s="5"/>
       <c r="J449" s="5"/>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1476</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="23" t="s">
         <v>1477</v>
       </c>
       <c r="C450" t="s">
@@ -19868,11 +19923,11 @@
       <c r="I450" s="5"/>
       <c r="J450" s="5"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1480</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="23" t="s">
         <v>1481</v>
       </c>
       <c r="C451" t="s">
@@ -19896,11 +19951,11 @@
       <c r="I451" s="5"/>
       <c r="J451" s="5"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1484</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="23" t="s">
         <v>1485</v>
       </c>
       <c r="C452" t="s">
@@ -19924,11 +19979,11 @@
       <c r="I452" s="5"/>
       <c r="J452" s="5"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1488</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="23" t="s">
         <v>1489</v>
       </c>
       <c r="C453" t="s">
@@ -19952,11 +20007,11 @@
       <c r="I453" s="5"/>
       <c r="J453" s="5"/>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1492</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="23" t="s">
         <v>1493</v>
       </c>
       <c r="C454" t="s">
@@ -19980,11 +20035,11 @@
       <c r="I454" s="5"/>
       <c r="J454" s="5"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1496</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="23" t="s">
         <v>1497</v>
       </c>
       <c r="C455" t="s">
@@ -20008,11 +20063,11 @@
       <c r="I455" s="5"/>
       <c r="J455" s="5"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1500</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="23" t="s">
         <v>1501</v>
       </c>
       <c r="C456" t="s">
@@ -20036,11 +20091,11 @@
       <c r="I456" s="5"/>
       <c r="J456" s="5"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1504</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="23" t="s">
         <v>1505</v>
       </c>
       <c r="C457" t="s">
@@ -20064,11 +20119,11 @@
       <c r="I457" s="5"/>
       <c r="J457" s="5"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1508</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="23" t="s">
         <v>1509</v>
       </c>
       <c r="C458" t="s">
@@ -20092,11 +20147,11 @@
       <c r="I458" s="5"/>
       <c r="J458" s="5"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1511</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="23" t="s">
         <v>1512</v>
       </c>
       <c r="C459" t="s">
@@ -20122,11 +20177,11 @@
       </c>
       <c r="J459" s="5"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1515</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="23" t="s">
         <v>1516</v>
       </c>
       <c r="C460" t="s">
@@ -20150,11 +20205,11 @@
       <c r="I460" s="5"/>
       <c r="J460" s="5"/>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1519</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="23" t="s">
         <v>1520</v>
       </c>
       <c r="C461" t="s">
@@ -20178,11 +20233,11 @@
       <c r="I461" s="5"/>
       <c r="J461" s="5"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1523</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="23" t="s">
         <v>1524</v>
       </c>
       <c r="C462" t="s">
@@ -20206,11 +20261,11 @@
       <c r="I462" s="5"/>
       <c r="J462" s="5"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>134</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="23" t="s">
         <v>1275</v>
       </c>
       <c r="C463" t="s">
@@ -20234,11 +20289,11 @@
       <c r="I463" s="5"/>
       <c r="J463" s="5"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>741</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="23" t="s">
         <v>1276</v>
       </c>
       <c r="C464" t="s">
@@ -20264,11 +20319,11 @@
       </c>
       <c r="J464" s="5"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>647</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="23" t="s">
         <v>1277</v>
       </c>
       <c r="C465" t="s">
@@ -20292,11 +20347,11 @@
       <c r="I465" s="5"/>
       <c r="J465" s="5"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>715</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="23" t="s">
         <v>1278</v>
       </c>
       <c r="C466" t="s">
@@ -20320,11 +20375,11 @@
       <c r="I466" s="5"/>
       <c r="J466" s="5"/>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>798</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="23" t="s">
         <v>1279</v>
       </c>
       <c r="C467" t="s">
@@ -20348,11 +20403,11 @@
       <c r="I467" s="5"/>
       <c r="J467" s="5"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>829</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="23" t="s">
         <v>1280</v>
       </c>
       <c r="C468" t="s">
@@ -20376,11 +20431,11 @@
       <c r="I468" s="5"/>
       <c r="J468" s="5"/>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1281</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="23" t="s">
         <v>1282</v>
       </c>
       <c r="C469" t="s">
@@ -20406,11 +20461,11 @@
       </c>
       <c r="J469" s="5"/>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1285</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="23" t="s">
         <v>1286</v>
       </c>
       <c r="C470" t="s">
@@ -20434,11 +20489,11 @@
       <c r="I470" s="5"/>
       <c r="J470" s="5"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1287</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="23" t="s">
         <v>1288</v>
       </c>
       <c r="C471" t="s">
@@ -20462,11 +20517,11 @@
       <c r="I471" s="5"/>
       <c r="J471" s="5"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1289</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="23" t="s">
         <v>1290</v>
       </c>
       <c r="C472" t="s">
@@ -20492,11 +20547,11 @@
       </c>
       <c r="J472" s="5"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1292</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="23" t="s">
         <v>1293</v>
       </c>
       <c r="C473" t="s">
@@ -20522,11 +20577,11 @@
       </c>
       <c r="J473" s="5"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1296</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="23" t="s">
         <v>1297</v>
       </c>
       <c r="C474" t="s">
@@ -20552,11 +20607,11 @@
       </c>
       <c r="J474" s="5"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>5</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C475" t="s">
@@ -20582,11 +20637,11 @@
       </c>
       <c r="J475" s="5"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>10</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C476" t="s">
@@ -20612,11 +20667,11 @@
       </c>
       <c r="J476" s="5"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>14</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C477" t="s">
@@ -20642,11 +20697,11 @@
       </c>
       <c r="J477" s="5"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>18</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C478" t="s">
@@ -20672,11 +20727,11 @@
       </c>
       <c r="J478" s="5"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>22</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C479" t="s">
@@ -20702,11 +20757,11 @@
       </c>
       <c r="J479" s="5"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>26</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C480" t="s">
@@ -20732,11 +20787,11 @@
       </c>
       <c r="J480" s="5"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>30</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C481" t="s">
@@ -20762,11 +20817,11 @@
       </c>
       <c r="J481" s="5"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>34</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C482" t="s">
@@ -20792,11 +20847,11 @@
       </c>
       <c r="J482" s="5"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>38</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C483" t="s">
@@ -20822,11 +20877,11 @@
       </c>
       <c r="J483" s="5"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>42</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C484" t="s">
@@ -20852,11 +20907,11 @@
       </c>
       <c r="J484" s="5"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>46</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C485" t="s">
@@ -20882,11 +20937,11 @@
       </c>
       <c r="J485" s="5"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>175</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C486" t="s">
@@ -20912,11 +20967,11 @@
       </c>
       <c r="J486" s="5"/>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>54</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C487" t="s">
@@ -20942,11 +20997,11 @@
       </c>
       <c r="J487" s="5"/>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>58</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C488" t="s">
@@ -20972,11 +21027,11 @@
       </c>
       <c r="J488" s="5"/>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1311</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="23" t="s">
         <v>1312</v>
       </c>
       <c r="C489" t="s">
@@ -21002,11 +21057,11 @@
       </c>
       <c r="J489" s="5"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1315</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="23" t="s">
         <v>1316</v>
       </c>
       <c r="C490" t="s">
@@ -21032,11 +21087,11 @@
       </c>
       <c r="J490" s="5"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1319</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="23" t="s">
         <v>1320</v>
       </c>
       <c r="C491" t="s">
@@ -21062,11 +21117,11 @@
       </c>
       <c r="J491" s="5"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1323</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="23" t="s">
         <v>1324</v>
       </c>
       <c r="C492" t="s">
@@ -21092,11 +21147,11 @@
       </c>
       <c r="J492" s="5"/>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1327</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="23" t="s">
         <v>1328</v>
       </c>
       <c r="C493" t="s">
@@ -21122,11 +21177,11 @@
       </c>
       <c r="J493" s="5"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1527</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="23" t="s">
         <v>1528</v>
       </c>
       <c r="C494" t="s">
@@ -21152,11 +21207,11 @@
       </c>
       <c r="J494" s="5"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1531</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="23" t="s">
         <v>1532</v>
       </c>
       <c r="C495" t="s">
@@ -21182,11 +21237,11 @@
       </c>
       <c r="J495" s="5"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="22" t="s">
         <v>1535</v>
       </c>
       <c r="C496" s="3" t="s">
@@ -21209,11 +21264,11 @@
       </c>
       <c r="I496" s="3"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>611</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="23" t="s">
         <v>1539</v>
       </c>
       <c r="C497" t="s">
@@ -21235,11 +21290,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>723</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="23" t="s">
         <v>1542</v>
       </c>
       <c r="C498" t="s">
@@ -21264,11 +21319,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1545</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="23" t="s">
         <v>1546</v>
       </c>
       <c r="C499" t="s">
@@ -21290,11 +21345,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1549</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="23" t="s">
         <v>1550</v>
       </c>
       <c r="C500" t="s">
@@ -21316,11 +21371,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1553</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="23" t="s">
         <v>1554</v>
       </c>
       <c r="C501" t="s">
@@ -21342,11 +21397,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1557</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="23" t="s">
         <v>1558</v>
       </c>
       <c r="C502" t="s">
@@ -21368,11 +21423,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1561</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="23" t="s">
         <v>1562</v>
       </c>
       <c r="C503" t="s">
@@ -21397,11 +21452,11 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1043</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="23" t="s">
         <v>1565</v>
       </c>
       <c r="C504" t="s">
@@ -21423,11 +21478,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1568</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="23" t="s">
         <v>1569</v>
       </c>
       <c r="C505" t="s">
@@ -21449,11 +21504,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1572</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="23" t="s">
         <v>1573</v>
       </c>
       <c r="C506" t="s">
@@ -21475,11 +21530,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1576</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="23" t="s">
         <v>1577</v>
       </c>
       <c r="C507" t="s">
@@ -21501,11 +21556,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1580</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="23" t="s">
         <v>1581</v>
       </c>
       <c r="C508" t="s">
@@ -21527,11 +21582,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1582</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="23" t="s">
         <v>1583</v>
       </c>
       <c r="C509" t="s">
@@ -21553,11 +21608,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1586</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="23" t="s">
         <v>1587</v>
       </c>
       <c r="C510" t="s">
@@ -21579,11 +21634,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1590</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="23" t="s">
         <v>1591</v>
       </c>
       <c r="C511" t="s">
@@ -21605,11 +21660,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1592</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="23" t="s">
         <v>1593</v>
       </c>
       <c r="C512" t="s">
@@ -21631,11 +21686,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1596</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="23" t="s">
         <v>1597</v>
       </c>
       <c r="C513" t="s">
@@ -21657,11 +21712,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1598</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="23" t="s">
         <v>1599</v>
       </c>
       <c r="C514" t="s">
@@ -21683,11 +21738,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1602</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="23" t="s">
         <v>1603</v>
       </c>
       <c r="C515" t="s">
@@ -21709,11 +21764,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1606</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="23" t="s">
         <v>1607</v>
       </c>
       <c r="C516" t="s">
@@ -21735,11 +21790,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1610</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="23" t="s">
         <v>1611</v>
       </c>
       <c r="C517" t="s">
@@ -21761,11 +21816,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1614</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="23" t="s">
         <v>1615</v>
       </c>
       <c r="C518" t="s">
@@ -21787,11 +21842,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1618</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B519" s="23" t="s">
         <v>1619</v>
       </c>
       <c r="C519" t="s">
@@ -21813,11 +21868,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1622</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="23" t="s">
         <v>1623</v>
       </c>
       <c r="C520" t="s">
@@ -21839,11 +21894,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1626</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="23" t="s">
         <v>1627</v>
       </c>
       <c r="C521" t="s">
@@ -21868,11 +21923,11 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1630</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="23" t="s">
         <v>1631</v>
       </c>
       <c r="C522" t="s">
@@ -21894,11 +21949,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1634</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B523" s="23" t="s">
         <v>1635</v>
       </c>
       <c r="C523" t="s">
@@ -21920,11 +21975,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1638</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="23" t="s">
         <v>1639</v>
       </c>
       <c r="C524" t="s">
@@ -21946,11 +22001,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1642</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="23" t="s">
         <v>1643</v>
       </c>
       <c r="C525" t="s">
@@ -21972,11 +22027,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1646</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="23" t="s">
         <v>1647</v>
       </c>
       <c r="C526" t="s">
@@ -22001,11 +22056,11 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1650</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="23" t="s">
         <v>1651</v>
       </c>
       <c r="C527" t="s">
@@ -22027,11 +22082,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1654</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="23" t="s">
         <v>1655</v>
       </c>
       <c r="C528" t="s">
@@ -22056,11 +22111,11 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1658</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="23" t="s">
         <v>1659</v>
       </c>
       <c r="C529" t="s">
@@ -22085,11 +22140,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1662</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="23" t="s">
         <v>1663</v>
       </c>
       <c r="C530" t="s">
@@ -22111,11 +22166,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1666</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="23" t="s">
         <v>1667</v>
       </c>
       <c r="C531" t="s">
@@ -22140,11 +22195,11 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1670</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="23" t="s">
         <v>1671</v>
       </c>
       <c r="C532" t="s">
@@ -22166,11 +22221,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1674</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="23" t="s">
         <v>1675</v>
       </c>
       <c r="C533" t="s">
@@ -22192,11 +22247,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1678</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="23" t="s">
         <v>1679</v>
       </c>
       <c r="C534" t="s">
@@ -22218,11 +22273,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1682</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="23" t="s">
         <v>1683</v>
       </c>
       <c r="C535" t="s">
@@ -22244,11 +22299,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1684</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="23" t="s">
         <v>1685</v>
       </c>
       <c r="C536" t="s">
@@ -22270,11 +22325,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1688</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="23" t="s">
         <v>1689</v>
       </c>
       <c r="C537" t="s">
@@ -22296,11 +22351,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1692</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="23" t="s">
         <v>1693</v>
       </c>
       <c r="C538" t="s">
@@ -22325,11 +22380,11 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1696</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="23" t="s">
         <v>1697</v>
       </c>
       <c r="C539" t="s">
@@ -22351,11 +22406,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1700</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="23" t="s">
         <v>1701</v>
       </c>
       <c r="C540" t="s">
@@ -22377,11 +22432,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1704</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="23" t="s">
         <v>1705</v>
       </c>
       <c r="C541" t="s">
@@ -22403,11 +22458,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1708</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="23" t="s">
         <v>1709</v>
       </c>
       <c r="C542" t="s">
@@ -22429,11 +22484,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1712</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="23" t="s">
         <v>1713</v>
       </c>
       <c r="C543" t="s">
@@ -22455,11 +22510,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1716</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="23" t="s">
         <v>1717</v>
       </c>
       <c r="C544" t="s">
@@ -22481,11 +22536,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1720</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="23" t="s">
         <v>1721</v>
       </c>
       <c r="C545" t="s">
@@ -22507,11 +22562,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1724</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B546" s="23" t="s">
         <v>1725</v>
       </c>
       <c r="C546" t="s">
@@ -22536,11 +22591,11 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1726</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="23" t="s">
         <v>1727</v>
       </c>
       <c r="C547" t="s">
@@ -22562,11 +22617,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1730</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="23" t="s">
         <v>1731</v>
       </c>
       <c r="C548" t="s">
@@ -22591,11 +22646,11 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1734</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="23" t="s">
         <v>1735</v>
       </c>
       <c r="C549" t="s">
@@ -22620,11 +22675,11 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1738</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="23" t="s">
         <v>1739</v>
       </c>
       <c r="C550" t="s">
@@ -22649,11 +22704,11 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1742</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="23" t="s">
         <v>1743</v>
       </c>
       <c r="C551" t="s">
@@ -22675,11 +22730,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1746</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552" s="23" t="s">
         <v>1747</v>
       </c>
       <c r="C552" t="s">
@@ -22701,11 +22756,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1750</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="23" t="s">
         <v>1751</v>
       </c>
       <c r="C553" t="s">
@@ -22727,11 +22782,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1754</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="23" t="s">
         <v>1755</v>
       </c>
       <c r="C554" t="s">
@@ -22756,11 +22811,11 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1308</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B555" s="23" t="s">
         <v>1758</v>
       </c>
       <c r="C555" t="s">
@@ -22782,11 +22837,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1761</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="23" t="s">
         <v>1762</v>
       </c>
       <c r="C556" t="s">
@@ -22808,11 +22863,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1765</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="23" t="s">
         <v>1766</v>
       </c>
       <c r="C557" t="s">
@@ -22834,11 +22889,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1769</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="23" t="s">
         <v>1770</v>
       </c>
       <c r="C558" t="s">
@@ -22860,11 +22915,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1773</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="23" t="s">
         <v>1774</v>
       </c>
       <c r="C559" t="s">
@@ -22886,11 +22941,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1777</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B560" s="23" t="s">
         <v>1778</v>
       </c>
       <c r="C560" t="s">
@@ -22912,11 +22967,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1781</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B561" s="23" t="s">
         <v>1782</v>
       </c>
       <c r="C561" t="s">
@@ -22938,11 +22993,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1785</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="23" t="s">
         <v>1786</v>
       </c>
       <c r="C562" t="s">
@@ -22964,11 +23019,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1789</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B563" s="23" t="s">
         <v>1790</v>
       </c>
       <c r="C563" t="s">
@@ -22990,11 +23045,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1793</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B564" s="23" t="s">
         <v>1794</v>
       </c>
       <c r="C564" t="s">
@@ -23016,11 +23071,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>5</v>
       </c>
-      <c r="B565" t="s">
+      <c r="B565" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C565" t="s">
@@ -23045,11 +23100,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>10</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B566" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C566" t="s">
@@ -23074,11 +23129,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>14</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B567" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C567" t="s">
@@ -23103,11 +23158,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>18</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B568" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C568" t="s">
@@ -23132,11 +23187,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>22</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B569" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C569" t="s">
@@ -23161,11 +23216,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>26</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B570" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C570" t="s">
@@ -23190,11 +23245,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>30</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B571" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C571" t="s">
@@ -23219,11 +23274,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>34</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B572" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C572" t="s">
@@ -23248,11 +23303,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>38</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B573" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C573" t="s">
@@ -23277,11 +23332,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>42</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B574" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C574" t="s">
@@ -23306,11 +23361,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>46</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C575" t="s">
@@ -23335,11 +23390,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>175</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C576" t="s">
@@ -23364,11 +23419,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>54</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C577" t="s">
@@ -23393,11 +23448,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>58</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C578" t="s">
@@ -23422,11 +23477,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1311</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="23" t="s">
         <v>1312</v>
       </c>
       <c r="C579" t="s">
@@ -23451,11 +23506,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1315</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="23" t="s">
         <v>1316</v>
       </c>
       <c r="C580" t="s">
@@ -23480,11 +23535,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1319</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="23" t="s">
         <v>1320</v>
       </c>
       <c r="C581" t="s">
@@ -23509,11 +23564,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1323</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="23" t="s">
         <v>1324</v>
       </c>
       <c r="C582" t="s">
@@ -23538,11 +23593,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1327</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="23" t="s">
         <v>1328</v>
       </c>
       <c r="C583" t="s">
@@ -23567,11 +23622,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1527</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="23" t="s">
         <v>1528</v>
       </c>
       <c r="C584" t="s">
@@ -23596,11 +23651,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1531</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="23" t="s">
         <v>1532</v>
       </c>
       <c r="C585" t="s">
@@ -23625,11 +23680,11 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="6" t="s">
         <v>1830</v>
       </c>
-      <c r="B586" s="3" t="s">
+      <c r="B586" s="22" t="s">
         <v>1831</v>
       </c>
       <c r="C586" s="3" t="s">
@@ -23654,11 +23709,11 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="17" t="s">
         <v>1930</v>
       </c>
-      <c r="B587" s="5" t="s">
+      <c r="B587" s="24" t="s">
         <v>1831</v>
       </c>
       <c r="C587" t="s">
@@ -23683,11 +23738,11 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="17" t="s">
         <v>1931</v>
       </c>
-      <c r="B588" s="5" t="s">
+      <c r="B588" s="24" t="s">
         <v>1831</v>
       </c>
       <c r="C588" t="s">
@@ -23712,11 +23767,11 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="17" t="s">
         <v>1840</v>
       </c>
-      <c r="B589" s="5" t="s">
+      <c r="B589" s="24" t="s">
         <v>1831</v>
       </c>
       <c r="C589" t="s">
@@ -23741,11 +23796,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="17" t="s">
         <v>1932</v>
       </c>
-      <c r="B590" s="5" t="s">
+      <c r="B590" s="24" t="s">
         <v>1831</v>
       </c>
       <c r="C590" t="s">
@@ -23770,11 +23825,11 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="17" t="s">
         <v>1804</v>
       </c>
-      <c r="B591" s="5" t="s">
+      <c r="B591" s="24" t="s">
         <v>1831</v>
       </c>
       <c r="C591" t="s">
@@ -23799,11 +23854,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="17" t="s">
         <v>1819</v>
       </c>
-      <c r="B592" s="5" t="s">
+      <c r="B592" s="24" t="s">
         <v>1831</v>
       </c>
       <c r="C592" t="s">
@@ -23828,11 +23883,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="17" t="s">
         <v>1939</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="23" t="s">
         <v>1846</v>
       </c>
       <c r="C593" t="s">
@@ -23857,11 +23912,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="17" t="s">
         <v>1798</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="23" t="s">
         <v>1798</v>
       </c>
       <c r="C594" t="s">
@@ -23886,11 +23941,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="17" t="s">
         <v>1940</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="23" t="s">
         <v>1809</v>
       </c>
       <c r="C595" t="s">
@@ -23915,11 +23970,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="20" t="s">
         <v>1941</v>
       </c>
-      <c r="B596" s="5" t="s">
+      <c r="B596" s="24" t="s">
         <v>1795</v>
       </c>
       <c r="C596" s="5" t="s">
@@ -23944,11 +23999,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="17" t="s">
         <v>1933</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="23" t="s">
         <v>1808</v>
       </c>
       <c r="C597" t="s">
@@ -23973,11 +24028,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="17" t="s">
         <v>1934</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="23" t="s">
         <v>1849</v>
       </c>
       <c r="C598" t="s">
@@ -24002,11 +24057,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="17" t="s">
         <v>1935</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="23" t="s">
         <v>1799</v>
       </c>
       <c r="C599" t="s">
@@ -24031,11 +24086,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="17" t="s">
         <v>1936</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="23" t="s">
         <v>1806</v>
       </c>
       <c r="C600" t="s">
@@ -24060,11 +24115,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="17" t="s">
         <v>1937</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B601" s="23" t="s">
         <v>1807</v>
       </c>
       <c r="C601" t="s">
@@ -24089,11 +24144,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="17" t="s">
         <v>1938</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B602" s="23" t="s">
         <v>1802</v>
       </c>
       <c r="C602" t="s">
@@ -24118,11 +24173,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="17" t="s">
         <v>1801</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="23" t="s">
         <v>1803</v>
       </c>
       <c r="C603" t="s">
@@ -24147,11 +24202,11 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="17" t="s">
         <v>1942</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="23" t="s">
         <v>1815</v>
       </c>
       <c r="C604" t="s">
@@ -24176,11 +24231,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="17" t="s">
         <v>1943</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="23" t="s">
         <v>1817</v>
       </c>
       <c r="C605" t="s">
@@ -24205,11 +24260,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="17" t="s">
         <v>1944</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="23" t="s">
         <v>1834</v>
       </c>
       <c r="C606" t="s">
@@ -24234,11 +24289,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="17" t="s">
         <v>1945</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="23" t="s">
         <v>1800</v>
       </c>
       <c r="C607" t="s">
@@ -24263,11 +24318,11 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="17" t="s">
         <v>798</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C608" t="s">
@@ -24292,11 +24347,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="17" t="s">
         <v>1946</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C609" t="s">
@@ -24321,11 +24376,11 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="17" t="s">
         <v>1947</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C610" t="s">
@@ -24350,11 +24405,11 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="17" t="s">
         <v>1948</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C611" t="s">
@@ -24379,11 +24434,11 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="17" t="s">
         <v>1949</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C612" t="s">
@@ -24408,11 +24463,11 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" s="17" t="s">
         <v>1833</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C613" t="s">
@@ -24437,11 +24492,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" s="17" t="s">
         <v>1848</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C614" t="s">
@@ -24466,11 +24521,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="17" t="s">
         <v>1839</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="23" t="s">
         <v>1816</v>
       </c>
       <c r="C615" t="s">
@@ -24495,11 +24550,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="17" t="s">
         <v>1953</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="23" t="s">
         <v>1838</v>
       </c>
       <c r="C616" t="s">
@@ -24524,11 +24579,11 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="17" t="s">
         <v>1954</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="23" t="s">
         <v>1805</v>
       </c>
       <c r="C617" t="s">
@@ -24553,11 +24608,11 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="17" t="s">
         <v>1955</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="23" t="s">
         <v>1847</v>
       </c>
       <c r="C618" t="s">
@@ -24582,11 +24637,11 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="17" t="s">
         <v>1956</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="23" t="s">
         <v>1844</v>
       </c>
       <c r="C619" t="s">
@@ -24611,11 +24666,11 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="17" t="s">
         <v>1957</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="23" t="s">
         <v>1829</v>
       </c>
       <c r="C620" t="s">
@@ -24640,11 +24695,11 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="17" t="s">
         <v>1958</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="23" t="s">
         <v>1820</v>
       </c>
       <c r="C621" t="s">
@@ -24669,11 +24724,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="17" t="s">
         <v>1832</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="23" t="s">
         <v>1818</v>
       </c>
       <c r="C622" t="s">
@@ -24698,11 +24753,11 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="17" t="s">
         <v>1950</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="23" t="s">
         <v>1818</v>
       </c>
       <c r="C623" t="s">
@@ -24727,11 +24782,11 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="17" t="s">
         <v>1951</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="23" t="s">
         <v>1818</v>
       </c>
       <c r="C624" t="s">
@@ -24756,11 +24811,11 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="17" t="s">
         <v>1952</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B625" s="23" t="s">
         <v>1818</v>
       </c>
       <c r="C625" t="s">
@@ -24785,11 +24840,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="23" t="s">
         <v>1983</v>
       </c>
       <c r="C626" t="s">
@@ -24814,11 +24869,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="17" t="s">
         <v>1821</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="23" t="s">
         <v>1983</v>
       </c>
       <c r="C627" t="s">
@@ -24843,11 +24898,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="17" t="s">
         <v>1841</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="23" t="s">
         <v>1983</v>
       </c>
       <c r="C628" t="s">
@@ -24872,11 +24927,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" s="17" t="s">
         <v>1824</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="23" t="s">
         <v>1983</v>
       </c>
       <c r="C629" t="s">
@@ -24901,11 +24956,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" s="17" t="s">
         <v>1827</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="23" t="s">
         <v>1983</v>
       </c>
       <c r="C630" t="s">
@@ -24930,11 +24985,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="17" t="s">
         <v>1959</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B631" s="23" t="s">
         <v>1983</v>
       </c>
       <c r="C631" t="s">
@@ -24959,11 +25014,11 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" s="17" t="s">
         <v>1960</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B632" s="23" t="s">
         <v>1983</v>
       </c>
       <c r="C632" t="s">
@@ -24988,11 +25043,11 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" s="17" t="s">
         <v>1287</v>
       </c>
-      <c r="B633" t="s">
+      <c r="B633" s="23" t="s">
         <v>1985</v>
       </c>
       <c r="C633" t="s">
@@ -25017,11 +25072,11 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" s="17" t="s">
         <v>1837</v>
       </c>
-      <c r="B634" t="s">
+      <c r="B634" s="23" t="s">
         <v>1985</v>
       </c>
       <c r="C634" t="s">
@@ -25046,11 +25101,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" s="17" t="s">
         <v>1812</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="23" t="s">
         <v>1985</v>
       </c>
       <c r="C635" t="s">
@@ -25075,11 +25130,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" s="17" t="s">
         <v>1845</v>
       </c>
-      <c r="B636" t="s">
+      <c r="B636" s="23" t="s">
         <v>1985</v>
       </c>
       <c r="C636" t="s">
@@ -25104,11 +25159,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="17" t="s">
         <v>1797</v>
       </c>
-      <c r="B637" t="s">
+      <c r="B637" s="23" t="s">
         <v>1985</v>
       </c>
       <c r="C637" t="s">
@@ -25133,11 +25188,11 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="17" t="s">
         <v>1961</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B638" s="23" t="s">
         <v>1985</v>
       </c>
       <c r="C638" t="s">
@@ -25162,11 +25217,11 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="17" t="s">
         <v>1971</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="23" t="s">
         <v>1963</v>
       </c>
       <c r="E639" t="s">
@@ -25185,11 +25240,11 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="17" t="s">
         <v>1970</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="23" t="s">
         <v>1965</v>
       </c>
       <c r="E640" t="s">
@@ -25208,11 +25263,11 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="17" t="s">
         <v>1966</v>
       </c>
-      <c r="B641" t="s">
+      <c r="B641" s="23" t="s">
         <v>1967</v>
       </c>
       <c r="E641" t="s">
@@ -25231,11 +25286,11 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="17" t="s">
         <v>1969</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B642" s="23" t="s">
         <v>1972</v>
       </c>
       <c r="E642" t="s">
@@ -25254,11 +25309,11 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="17" t="s">
         <v>1974</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B643" s="23" t="s">
         <v>1975</v>
       </c>
       <c r="E643" t="s">
@@ -25277,11 +25332,11 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="17" t="s">
         <v>1978</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B644" s="23" t="s">
         <v>1979</v>
       </c>
       <c r="E644" t="s">
@@ -25300,11 +25355,11 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="17" t="s">
         <v>1981</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B645" s="23" t="s">
         <v>1982</v>
       </c>
       <c r="E645" t="s">
@@ -25321,6 +25376,422 @@
       </c>
       <c r="I645" s="18" t="s">
         <v>1984</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A646" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B646" s="23" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C646" t="s">
+        <v>839</v>
+      </c>
+      <c r="D646" t="s">
+        <v>840</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F646" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G646" s="25">
+        <v>1043</v>
+      </c>
+      <c r="H646">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>5</v>
+      </c>
+      <c r="B647" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C647" t="s">
+        <v>7</v>
+      </c>
+      <c r="D647" t="s">
+        <v>8</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F647" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G647" s="25">
+        <v>238</v>
+      </c>
+      <c r="H647">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>14</v>
+      </c>
+      <c r="B648" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C648" t="s">
+        <v>16</v>
+      </c>
+      <c r="D648" t="s">
+        <v>17</v>
+      </c>
+      <c r="E648" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F648" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G648" s="25">
+        <v>82</v>
+      </c>
+      <c r="H648">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>83</v>
+      </c>
+      <c r="B649" s="23" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C649" t="s">
+        <v>84</v>
+      </c>
+      <c r="D649" t="s">
+        <v>85</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G649" s="25">
+        <v>501</v>
+      </c>
+      <c r="H649">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>134</v>
+      </c>
+      <c r="B650" s="23" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C650" t="s">
+        <v>135</v>
+      </c>
+      <c r="D650" t="s">
+        <v>136</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G650" s="25">
+        <v>203</v>
+      </c>
+      <c r="H650">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>607</v>
+      </c>
+      <c r="B651" s="23" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C651" t="s">
+        <v>609</v>
+      </c>
+      <c r="D651" t="s">
+        <v>610</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F651" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G651" s="25">
+        <v>395</v>
+      </c>
+      <c r="H651">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>647</v>
+      </c>
+      <c r="B652" s="23" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C652" t="s">
+        <v>649</v>
+      </c>
+      <c r="D652" t="s">
+        <v>650</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F652" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G652" s="25">
+        <v>491</v>
+      </c>
+      <c r="H652">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>631</v>
+      </c>
+      <c r="B653" s="23" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C653" t="s">
+        <v>633</v>
+      </c>
+      <c r="D653" t="s">
+        <v>634</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F653" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G653" s="25">
+        <v>477</v>
+      </c>
+      <c r="H653">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>639</v>
+      </c>
+      <c r="B654" s="23" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C654" t="s">
+        <v>641</v>
+      </c>
+      <c r="D654" t="s">
+        <v>642</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F654" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G654" s="25">
+        <v>688</v>
+      </c>
+      <c r="H654">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B655" s="23" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G655" s="25">
+        <v>329</v>
+      </c>
+      <c r="H655">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>790</v>
+      </c>
+      <c r="B656" s="23" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C656" t="s">
+        <v>792</v>
+      </c>
+      <c r="D656" t="s">
+        <v>793</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F656" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G656" s="25">
+        <v>364</v>
+      </c>
+      <c r="H656">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>919</v>
+      </c>
+      <c r="B657" s="23" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C657" t="s">
+        <v>921</v>
+      </c>
+      <c r="D657" t="s">
+        <v>922</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G657" s="25">
+        <v>871</v>
+      </c>
+      <c r="H657">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B658" s="23" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C658" t="s">
+        <v>835</v>
+      </c>
+      <c r="D658" t="s">
+        <v>836</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F658" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G658" s="25">
+        <v>328</v>
+      </c>
+      <c r="H658">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>967</v>
+      </c>
+      <c r="B659" s="23" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C659" t="s">
+        <v>969</v>
+      </c>
+      <c r="D659" t="s">
+        <v>970</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F659" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G659" s="25">
+        <v>207</v>
+      </c>
+      <c r="H659">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B660" s="23" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F660" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G660" s="25">
+        <v>768</v>
+      </c>
+      <c r="H660">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B661" s="23" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F661" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G661" s="25">
+        <v>147</v>
+      </c>
+      <c r="H661">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
